--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2242243.635475333</v>
+        <v>2241544.656294018</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3294423.900001757</v>
+        <v>3294423.900001758</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,58 +1382,58 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17.84531197871192</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="H11" t="n">
-        <v>57.47841248622795</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>48.63102039758041</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>88.26412090509643</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>55.17100134541263</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>53.51380078835923</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>120.4693833830704</v>
       </c>
       <c r="X12" t="n">
-        <v>1.657200557053415</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Y12" t="n">
         <v>120.4693833830704</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>59.89355583796826</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>78.59969315393414</v>
+        <v>15.41821348478698</v>
       </c>
       <c r="T13" t="n">
         <v>24.51429709665609</v>
@@ -1588,7 +1588,7 @@
         <v>50.13192201551431</v>
       </c>
       <c r="W13" t="n">
-        <v>83.28814783599069</v>
+        <v>86.57607166716944</v>
       </c>
       <c r="X13" t="n">
         <v>23.3359308808844</v>
@@ -1607,23 +1607,23 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>39.63310050751613</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>88.26412090509641</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>17.84531197871195</v>
+        <v>17.84531197871186</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>48.63102039758036</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>120.4693833830704</v>
       </c>
       <c r="V15" t="n">
-        <v>29.1043019882303</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="W15" t="n">
-        <v>74.48120797136346</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="X15" t="n">
-        <v>1.657200557053443</v>
+        <v>28.11859736809062</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8667223671612021</v>
+        <v>0.8667223671611168</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.41821348478701</v>
+        <v>15.41821348478692</v>
       </c>
       <c r="T16" t="n">
-        <v>87.69577676580315</v>
+        <v>24.51429709665603</v>
       </c>
       <c r="U16" t="n">
-        <v>83.23489997993607</v>
+        <v>83.23489997993599</v>
       </c>
       <c r="V16" t="n">
-        <v>50.13192201551433</v>
+        <v>113.3134016846617</v>
       </c>
       <c r="W16" t="n">
-        <v>83.28814783599071</v>
+        <v>83.28814783599063</v>
       </c>
       <c r="X16" t="n">
-        <v>23.33593088088443</v>
+        <v>23.33593088088435</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.9442448163434</v>
+        <v>15.94424481634331</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>28.07151123207905</v>
       </c>
       <c r="E17" t="n">
-        <v>54.58481423276811</v>
+        <v>54.5848142327683</v>
       </c>
       <c r="F17" t="n">
         <v>78.76064195802149</v>
@@ -1923,61 +1923,61 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>106.1094328838084</v>
       </c>
-      <c r="D18" t="n">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="E18" t="n">
+      <c r="T18" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="F18" t="n">
+      <c r="U18" t="n">
         <v>120.4693833830704</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.1103690131182</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,55 +2014,55 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>59.89355583796826</v>
+      </c>
+      <c r="R19" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="H19" t="n">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>58.21681317514984</v>
+      </c>
+      <c r="W19" t="n">
         <v>120.4693833830704</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2157,76 +2157,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>120.4693833830704</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>106.1094328838084</v>
       </c>
-      <c r="D21" t="n">
+      <c r="Y21" t="n">
         <v>120.4693833830704</v>
-      </c>
-      <c r="E21" t="n">
-        <v>120.4693833830704</v>
-      </c>
-      <c r="F21" t="n">
-        <v>120.4693833830704</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,61 +2245,61 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>59.89355583796826</v>
+      </c>
+      <c r="R22" t="n">
+        <v>58.21681317514984</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="F22" t="n">
-        <v>120.4693833830704</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
       <c r="W22" t="n">
-        <v>118.1103690131182</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>85.79261728707205</v>
       </c>
       <c r="H23" t="n">
-        <v>4.193812382378352</v>
+        <v>4.193812382378353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="E24" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>28.98531973525174</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>28.98531973525175</v>
       </c>
       <c r="V24" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2473,67 +2473,67 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.1103690131182</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.4693833830704</v>
+        <v>118.1103690131181</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.6708233438642</v>
+        <v>221.6708233438641</v>
       </c>
       <c r="C26" t="n">
         <v>204.9395090314117</v>
@@ -2561,10 +2561,10 @@
         <v>194.5591461070675</v>
       </c>
       <c r="E26" t="n">
-        <v>221.0724491077566</v>
+        <v>221.0724491077565</v>
       </c>
       <c r="F26" t="n">
-        <v>245.24827683301</v>
+        <v>245.2482768330099</v>
       </c>
       <c r="G26" t="n">
         <v>252.2802521620605</v>
@@ -2573,7 +2573,7 @@
         <v>170.6814472573668</v>
       </c>
       <c r="I26" t="n">
-        <v>22.78727869617327</v>
+        <v>22.78727869617325</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.76645030977484</v>
+        <v>31.76645030977481</v>
       </c>
       <c r="T26" t="n">
-        <v>58.60415438260588</v>
+        <v>58.60415438260586</v>
       </c>
       <c r="U26" t="n">
-        <v>89.38986280147438</v>
+        <v>89.38986280147435</v>
       </c>
       <c r="V26" t="n">
-        <v>166.4876348749885</v>
+        <v>166.4876348749884</v>
       </c>
       <c r="W26" t="n">
         <v>188.4845303530237</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>61.15760675822193</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S27" t="n">
-        <v>1.659413800633721</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T27" t="n">
-        <v>35.19625393430947</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U27" t="n">
-        <v>169.4510766622847</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>41.62556477105511</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.03810484315292</v>
+        <v>18.03810484315289</v>
       </c>
       <c r="C28" t="n">
-        <v>5.290966283671452</v>
+        <v>5.290966283671423</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.606744021349648</v>
+        <v>5.60674402134962</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6775668401480619</v>
+        <v>0.6775668401480353</v>
       </c>
       <c r="S28" t="n">
-        <v>56.17705588868094</v>
+        <v>56.17705588868091</v>
       </c>
       <c r="T28" t="n">
-        <v>65.27313950055006</v>
+        <v>65.27313950055003</v>
       </c>
       <c r="U28" t="n">
         <v>123.99374238383</v>
       </c>
       <c r="V28" t="n">
-        <v>90.89076441940827</v>
+        <v>90.89076441940824</v>
       </c>
       <c r="W28" t="n">
-        <v>124.0469902398847</v>
+        <v>124.0469902398846</v>
       </c>
       <c r="X28" t="n">
-        <v>64.09477328477837</v>
+        <v>64.09477328477834</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.70308722023734</v>
+        <v>56.70308722023731</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>221.6708233438641</v>
+        <v>221.6708233438642</v>
       </c>
       <c r="C29" t="n">
         <v>204.9395090314117</v>
@@ -2798,10 +2798,10 @@
         <v>194.5591461070675</v>
       </c>
       <c r="E29" t="n">
-        <v>221.0724491077565</v>
+        <v>221.0724491077566</v>
       </c>
       <c r="F29" t="n">
-        <v>245.2482768330099</v>
+        <v>245.24827683301</v>
       </c>
       <c r="G29" t="n">
         <v>252.2802521620605</v>
@@ -2810,7 +2810,7 @@
         <v>170.6814472573668</v>
       </c>
       <c r="I29" t="n">
-        <v>22.78727869617325</v>
+        <v>22.78727869617327</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.76645030977481</v>
+        <v>31.76645030977484</v>
       </c>
       <c r="T29" t="n">
-        <v>58.60415438260586</v>
+        <v>58.60415438260588</v>
       </c>
       <c r="U29" t="n">
-        <v>89.38986280147435</v>
+        <v>89.38986280147438</v>
       </c>
       <c r="V29" t="n">
-        <v>166.4876348749884</v>
+        <v>166.4876348749885</v>
       </c>
       <c r="W29" t="n">
         <v>188.4845303530237</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.326538962813913</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>27.62610197401317</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>66.13788158025854</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.03810484315289</v>
+        <v>18.03810484315292</v>
       </c>
       <c r="C31" t="n">
-        <v>5.290966283671423</v>
+        <v>5.290966283671452</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.60674402134962</v>
+        <v>5.606744021349648</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6775668401480335</v>
+        <v>0.6775668401480637</v>
       </c>
       <c r="S31" t="n">
-        <v>56.17705588868091</v>
+        <v>56.17705588868094</v>
       </c>
       <c r="T31" t="n">
-        <v>65.27313950055003</v>
+        <v>65.27313950055006</v>
       </c>
       <c r="U31" t="n">
         <v>123.99374238383</v>
       </c>
       <c r="V31" t="n">
-        <v>90.89076441940824</v>
+        <v>90.89076441940827</v>
       </c>
       <c r="W31" t="n">
-        <v>124.0469902398846</v>
+        <v>124.0469902398847</v>
       </c>
       <c r="X31" t="n">
-        <v>64.09477328477834</v>
+        <v>64.09477328477837</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.70308722023731</v>
+        <v>56.70308722023734</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>204.9395090314117</v>
       </c>
       <c r="D32" t="n">
-        <v>194.5591461070674</v>
+        <v>194.5591461070675</v>
       </c>
       <c r="E32" t="n">
         <v>221.0724491077565</v>
@@ -3044,10 +3044,10 @@
         <v>252.2802521620605</v>
       </c>
       <c r="H32" t="n">
-        <v>170.6814472573667</v>
+        <v>170.6814472573668</v>
       </c>
       <c r="I32" t="n">
-        <v>22.78727869617322</v>
+        <v>22.78727869617325</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.7664503097748</v>
+        <v>31.76645030977483</v>
       </c>
       <c r="T32" t="n">
-        <v>58.60415438260583</v>
+        <v>58.60415438260586</v>
       </c>
       <c r="U32" t="n">
-        <v>89.38986280147432</v>
+        <v>89.38986280147435</v>
       </c>
       <c r="V32" t="n">
         <v>166.4876348749884</v>
       </c>
       <c r="W32" t="n">
-        <v>188.4845303530236</v>
+        <v>188.4845303530237</v>
       </c>
       <c r="X32" t="n">
-        <v>208.8160124836384</v>
+        <v>208.8160124836385</v>
       </c>
       <c r="Y32" t="n">
         <v>224.6414851037049</v>
@@ -3114,13 +3114,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>131.055592242344</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7050004481646</v>
+        <v>1.659413800633694</v>
       </c>
       <c r="T33" t="n">
-        <v>164.4979765612178</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U33" t="n">
-        <v>62.59297195405937</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.03810484315287</v>
+        <v>18.03810484315289</v>
       </c>
       <c r="C34" t="n">
-        <v>5.290966283671395</v>
+        <v>5.290966283671423</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.606744021349591</v>
+        <v>5.60674402134962</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6775668401480051</v>
+        <v>0.6775668401480353</v>
       </c>
       <c r="S34" t="n">
-        <v>56.17705588868088</v>
+        <v>56.17705588868091</v>
       </c>
       <c r="T34" t="n">
-        <v>65.27313950055</v>
+        <v>65.27313950055003</v>
       </c>
       <c r="U34" t="n">
         <v>123.99374238383</v>
       </c>
       <c r="V34" t="n">
-        <v>90.89076441940821</v>
+        <v>90.89076441940824</v>
       </c>
       <c r="W34" t="n">
         <v>124.0469902398846</v>
       </c>
       <c r="X34" t="n">
-        <v>64.09477328477831</v>
+        <v>64.09477328477834</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.70308722023728</v>
+        <v>56.70308722023731</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3351,19 +3351,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>95.98410661880928</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7050004481646</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3.429803624534622</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U36" t="n">
         <v>224.6385586015903</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>77.48766873493649</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.64534058921951</v>
+        <v>24.41060557890609</v>
       </c>
       <c r="T37" t="n">
         <v>33.5066891907752</v>
@@ -3487,7 +3487,7 @@
         <v>92.2805399301098</v>
       </c>
       <c r="X37" t="n">
-        <v>32.32832297500352</v>
+        <v>32.56305798531687</v>
       </c>
       <c r="Y37" t="n">
         <v>24.93663691046248</v>
@@ -3591,10 +3591,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.332791846628126</v>
       </c>
       <c r="T39" t="n">
-        <v>3.429803624534622</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U39" t="n">
-        <v>222.6610589427746</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3712,7 +3712,7 @@
         <v>24.41060557890609</v>
       </c>
       <c r="T40" t="n">
-        <v>33.5066891907752</v>
+        <v>33.74142420108858</v>
       </c>
       <c r="U40" t="n">
         <v>92.22729207405516</v>
@@ -3727,7 +3727,7 @@
         <v>32.32832297500352</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.17137192077589</v>
+        <v>24.93663691046248</v>
       </c>
     </row>
     <row r="41">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.7402095277565</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>163.7050004481646</v>
       </c>
       <c r="T42" t="n">
-        <v>192.8116590955534</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U42" t="n">
         <v>224.6385586015903</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>78.53705039073421</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.2347350103133817</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>24.41060557890609</v>
       </c>
       <c r="T43" t="n">
-        <v>33.74142420108863</v>
+        <v>33.5066891907752</v>
       </c>
       <c r="U43" t="n">
         <v>92.22729207405516</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>26.83770407283103</v>
@@ -4059,7 +4059,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -4068,10 +4068,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>67.01081076727345</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T45" t="n">
-        <v>3.429803624534622</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U45" t="n">
         <v>224.6385586015903</v>
@@ -4119,10 +4119,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>97.39522588069826</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>9.859114461280285</v>
       </c>
     </row>
     <row r="46">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.64534058921951</v>
+        <v>24.64534058921946</v>
       </c>
       <c r="T46" t="n">
         <v>33.5066891907752</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>311.0690448649576</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="C11" t="n">
-        <v>311.0690448649576</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="D11" t="n">
-        <v>311.0690448649576</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="E11" t="n">
-        <v>189.3827990234723</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="F11" t="n">
-        <v>189.3827990234723</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="G11" t="n">
-        <v>67.696553181987</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="H11" t="n">
         <v>9.637550670645634</v>
@@ -5039,25 +5039,25 @@
         <v>9.637550670645634</v>
       </c>
       <c r="J11" t="n">
-        <v>9.637550670645634</v>
+        <v>53.42792999998859</v>
       </c>
       <c r="K11" t="n">
-        <v>9.637550670645634</v>
+        <v>63.51757711628876</v>
       </c>
       <c r="L11" t="n">
-        <v>124.0834648845625</v>
+        <v>63.51757711628876</v>
       </c>
       <c r="M11" t="n">
-        <v>243.3481544338022</v>
+        <v>182.7822666655285</v>
       </c>
       <c r="N11" t="n">
-        <v>362.612843983042</v>
+        <v>182.7822666655285</v>
       </c>
       <c r="O11" t="n">
-        <v>481.8775335322817</v>
+        <v>302.0469562147682</v>
       </c>
       <c r="P11" t="n">
-        <v>481.8775335322817</v>
+        <v>421.3116457640079</v>
       </c>
       <c r="Q11" t="n">
         <v>481.8775335322817</v>
@@ -5069,22 +5069,22 @@
         <v>481.8775335322817</v>
       </c>
       <c r="T11" t="n">
-        <v>481.8775335322817</v>
+        <v>463.8519658770171</v>
       </c>
       <c r="U11" t="n">
-        <v>432.7552907064428</v>
+        <v>463.8519658770171</v>
       </c>
       <c r="V11" t="n">
-        <v>432.7552907064428</v>
+        <v>342.1657200355318</v>
       </c>
       <c r="W11" t="n">
-        <v>432.7552907064428</v>
+        <v>220.4794741940465</v>
       </c>
       <c r="X11" t="n">
-        <v>432.7552907064428</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="Y11" t="n">
-        <v>432.7552907064428</v>
+        <v>131.3237965121309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.3237965121309</v>
+        <v>65.36583485793113</v>
       </c>
       <c r="C12" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="D12" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="E12" t="n">
         <v>9.637550670645634</v>
@@ -5118,22 +5118,22 @@
         <v>9.637550670645634</v>
       </c>
       <c r="J12" t="n">
-        <v>43.50084578695257</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="K12" t="n">
-        <v>162.7655353361923</v>
+        <v>126.4064460902724</v>
       </c>
       <c r="L12" t="n">
+        <v>126.4064460902724</v>
+      </c>
+      <c r="M12" t="n">
         <v>245.6711356395122</v>
       </c>
-      <c r="M12" t="n">
-        <v>364.9358251887519</v>
-      </c>
       <c r="N12" t="n">
-        <v>364.9358251887519</v>
+        <v>245.6711356395122</v>
       </c>
       <c r="O12" t="n">
-        <v>364.9358251887519</v>
+        <v>245.6711356395122</v>
       </c>
       <c r="P12" t="n">
         <v>364.9358251887519</v>
@@ -5145,25 +5145,25 @@
         <v>481.8775335322817</v>
       </c>
       <c r="S12" t="n">
-        <v>427.8231893016158</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="T12" t="n">
-        <v>427.8231893016158</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="U12" t="n">
-        <v>405.7685129883174</v>
+        <v>459.8228572189832</v>
       </c>
       <c r="V12" t="n">
-        <v>376.3702281517211</v>
+        <v>430.424572382387</v>
       </c>
       <c r="W12" t="n">
-        <v>254.6839823102358</v>
+        <v>308.7383265409017</v>
       </c>
       <c r="X12" t="n">
-        <v>253.0100423536162</v>
+        <v>187.0520806994164</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.3237965121309</v>
+        <v>65.36583485793113</v>
       </c>
     </row>
     <row r="13">
@@ -5200,40 +5200,40 @@
         <v>9.637550670645634</v>
       </c>
       <c r="K13" t="n">
-        <v>22.30033025638125</v>
+        <v>22.30033025638124</v>
       </c>
       <c r="L13" t="n">
-        <v>94.30794362013586</v>
+        <v>94.30794362013584</v>
       </c>
       <c r="M13" t="n">
         <v>180.8227753221922</v>
       </c>
       <c r="N13" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O13" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P13" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q13" t="n">
-        <v>372.31344539717</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="R13" t="n">
-        <v>372.31344539717</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="S13" t="n">
-        <v>292.9198159487516</v>
+        <v>296.2409511317605</v>
       </c>
       <c r="T13" t="n">
-        <v>268.157899689503</v>
+        <v>271.4790348725119</v>
       </c>
       <c r="U13" t="n">
-        <v>184.0822431441131</v>
+        <v>187.4033783271219</v>
       </c>
       <c r="V13" t="n">
-        <v>133.443938077937</v>
+        <v>136.7650732609459</v>
       </c>
       <c r="W13" t="n">
         <v>49.31449581936056</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>220.4794741940465</v>
+        <v>171.3572313682078</v>
       </c>
       <c r="C14" t="n">
-        <v>98.7932283525612</v>
+        <v>171.3572313682078</v>
       </c>
       <c r="D14" t="n">
-        <v>98.7932283525612</v>
+        <v>171.3572313682078</v>
       </c>
       <c r="E14" t="n">
-        <v>98.7932283525612</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="F14" t="n">
-        <v>98.7932283525612</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="G14" t="n">
-        <v>9.637550670645634</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="H14" t="n">
         <v>9.637550670645634</v>
@@ -5276,25 +5276,25 @@
         <v>9.637550670645634</v>
       </c>
       <c r="J14" t="n">
-        <v>9.637550670645634</v>
+        <v>53.42792999998859</v>
       </c>
       <c r="K14" t="n">
-        <v>128.9022402198854</v>
+        <v>53.42792999998859</v>
       </c>
       <c r="L14" t="n">
-        <v>182.7822666655285</v>
+        <v>172.6926195492283</v>
       </c>
       <c r="M14" t="n">
-        <v>302.0469562147682</v>
+        <v>172.6926195492283</v>
       </c>
       <c r="N14" t="n">
-        <v>302.0469562147682</v>
+        <v>291.957309098468</v>
       </c>
       <c r="O14" t="n">
-        <v>302.0469562147682</v>
+        <v>362.612843983042</v>
       </c>
       <c r="P14" t="n">
-        <v>421.3116457640079</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="Q14" t="n">
         <v>481.8775335322817</v>
@@ -5306,22 +5306,22 @@
         <v>481.8775335322817</v>
       </c>
       <c r="T14" t="n">
-        <v>463.8519658770171</v>
+        <v>463.8519658770172</v>
       </c>
       <c r="U14" t="n">
-        <v>463.8519658770171</v>
+        <v>414.7297230511784</v>
       </c>
       <c r="V14" t="n">
-        <v>463.8519658770171</v>
+        <v>293.0434772096931</v>
       </c>
       <c r="W14" t="n">
-        <v>342.1657200355318</v>
+        <v>293.0434772096931</v>
       </c>
       <c r="X14" t="n">
-        <v>342.1657200355318</v>
+        <v>171.3572313682078</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.4794741940465</v>
+        <v>171.3572313682078</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="C15" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="D15" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="E15" t="n">
         <v>9.637550670645634</v>
@@ -5355,52 +5355,52 @@
         <v>9.637550670645634</v>
       </c>
       <c r="J15" t="n">
-        <v>9.637550670645634</v>
+        <v>43.50084578695257</v>
       </c>
       <c r="K15" t="n">
-        <v>9.637550670645634</v>
+        <v>43.50084578695257</v>
       </c>
       <c r="L15" t="n">
-        <v>9.637550670645634</v>
+        <v>162.7655353361923</v>
       </c>
       <c r="M15" t="n">
-        <v>126.4064460902724</v>
+        <v>282.030224885432</v>
       </c>
       <c r="N15" t="n">
-        <v>245.6711356395122</v>
+        <v>362.612843983042</v>
       </c>
       <c r="O15" t="n">
-        <v>364.9358251887519</v>
+        <v>362.612843983042</v>
       </c>
       <c r="P15" t="n">
-        <v>364.9358251887519</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="Q15" t="n">
         <v>481.8775335322817</v>
       </c>
       <c r="R15" t="n">
-        <v>481.8775335322817</v>
+        <v>403.97438893778</v>
       </c>
       <c r="S15" t="n">
-        <v>481.8775335322817</v>
+        <v>403.97438893778</v>
       </c>
       <c r="T15" t="n">
-        <v>481.8775335322817</v>
+        <v>403.97438893778</v>
       </c>
       <c r="U15" t="n">
-        <v>360.1912876907964</v>
+        <v>282.2881430962947</v>
       </c>
       <c r="V15" t="n">
-        <v>330.7930028542002</v>
+        <v>160.6018972548094</v>
       </c>
       <c r="W15" t="n">
-        <v>255.5594594487825</v>
+        <v>38.91565141332416</v>
       </c>
       <c r="X15" t="n">
-        <v>253.8855194921629</v>
+        <v>10.51302780919222</v>
       </c>
       <c r="Y15" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
     </row>
     <row r="16">
@@ -5437,46 +5437,46 @@
         <v>9.637550670645634</v>
       </c>
       <c r="K16" t="n">
-        <v>22.30033025638125</v>
+        <v>22.30033025638124</v>
       </c>
       <c r="L16" t="n">
-        <v>94.30794362013586</v>
+        <v>94.30794362013584</v>
       </c>
       <c r="M16" t="n">
         <v>180.8227753221922</v>
       </c>
       <c r="N16" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O16" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P16" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q16" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="R16" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="S16" t="n">
-        <v>356.7394923822336</v>
+        <v>356.7394923822335</v>
       </c>
       <c r="T16" t="n">
-        <v>268.1578996895032</v>
+        <v>331.9775761229851</v>
       </c>
       <c r="U16" t="n">
-        <v>184.0822431441132</v>
+        <v>247.9019195775952</v>
       </c>
       <c r="V16" t="n">
-        <v>133.4439380779371</v>
+        <v>133.4439380779368</v>
       </c>
       <c r="W16" t="n">
-        <v>49.31449581936062</v>
+        <v>49.31449581936045</v>
       </c>
       <c r="X16" t="n">
-        <v>25.7428484649319</v>
+        <v>25.74284846493181</v>
       </c>
       <c r="Y16" t="n">
         <v>9.637550670645634</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4206529421027</v>
+        <v>302.4206529421029</v>
       </c>
       <c r="C17" t="n">
         <v>263.5803760164227</v>
@@ -5498,10 +5498,10 @@
         <v>235.2253141658378</v>
       </c>
       <c r="E17" t="n">
-        <v>180.0891381731427</v>
+        <v>180.0891381731425</v>
       </c>
       <c r="F17" t="n">
-        <v>100.5329341751411</v>
+        <v>100.532934175141</v>
       </c>
       <c r="G17" t="n">
         <v>13.87372479426011</v>
@@ -5516,19 +5516,19 @@
         <v>9.637550670645634</v>
       </c>
       <c r="K17" t="n">
-        <v>9.637550670645634</v>
+        <v>63.51757711628876</v>
       </c>
       <c r="L17" t="n">
-        <v>9.637550670645634</v>
+        <v>182.7822666655285</v>
       </c>
       <c r="M17" t="n">
-        <v>128.9022402198854</v>
+        <v>302.0469562147682</v>
       </c>
       <c r="N17" t="n">
-        <v>182.7822666655285</v>
+        <v>302.0469562147682</v>
       </c>
       <c r="O17" t="n">
-        <v>302.0469562147682</v>
+        <v>421.3116457640079</v>
       </c>
       <c r="P17" t="n">
         <v>421.3116457640079</v>
@@ -5552,13 +5552,13 @@
         <v>481.8775335322817</v>
       </c>
       <c r="W17" t="n">
-        <v>459.6584471908322</v>
+        <v>459.6584471908323</v>
       </c>
       <c r="X17" t="n">
-        <v>416.9025102123979</v>
+        <v>416.902510212398</v>
       </c>
       <c r="Y17" t="n">
-        <v>358.1612473551085</v>
+        <v>358.1612473551086</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>481.8775335322817</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="C18" t="n">
-        <v>374.6962881951015</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="D18" t="n">
-        <v>253.0100423536162</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="E18" t="n">
-        <v>131.3237965121309</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="F18" t="n">
         <v>9.637550670645634</v>
@@ -5598,19 +5598,19 @@
         <v>9.637550670645634</v>
       </c>
       <c r="L18" t="n">
-        <v>9.637550670645634</v>
+        <v>124.0834648845625</v>
       </c>
       <c r="M18" t="n">
-        <v>9.637550670645634</v>
+        <v>243.3481544338022</v>
       </c>
       <c r="N18" t="n">
-        <v>126.4064460902724</v>
+        <v>362.612843983042</v>
       </c>
       <c r="O18" t="n">
-        <v>245.6711356395122</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="P18" t="n">
-        <v>364.9358251887519</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="Q18" t="n">
         <v>481.8775335322817</v>
@@ -5619,25 +5619,25 @@
         <v>481.8775335322817</v>
       </c>
       <c r="S18" t="n">
-        <v>481.8775335322817</v>
+        <v>360.1912876907964</v>
       </c>
       <c r="T18" t="n">
-        <v>481.8775335322817</v>
+        <v>238.5050418493111</v>
       </c>
       <c r="U18" t="n">
-        <v>481.8775335322817</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="V18" t="n">
-        <v>481.8775335322817</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="W18" t="n">
-        <v>481.8775335322817</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="X18" t="n">
-        <v>481.8775335322817</v>
+        <v>116.8187960078258</v>
       </c>
       <c r="Y18" t="n">
-        <v>481.8775335322817</v>
+        <v>116.8187960078258</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="C19" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="D19" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="E19" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="F19" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="G19" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="H19" t="n">
         <v>9.637550670645634</v>
@@ -5674,49 +5674,49 @@
         <v>9.637550670645634</v>
       </c>
       <c r="K19" t="n">
-        <v>22.30033025638125</v>
+        <v>22.30033025638124</v>
       </c>
       <c r="L19" t="n">
-        <v>94.30794362013586</v>
+        <v>94.30794362013584</v>
       </c>
       <c r="M19" t="n">
         <v>180.8227753221922</v>
       </c>
       <c r="N19" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O19" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P19" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q19" t="n">
-        <v>372.31344539717</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="R19" t="n">
-        <v>372.31344539717</v>
+        <v>190.1286583052116</v>
       </c>
       <c r="S19" t="n">
-        <v>372.31344539717</v>
+        <v>190.1286583052116</v>
       </c>
       <c r="T19" t="n">
-        <v>372.31344539717</v>
+        <v>190.1286583052116</v>
       </c>
       <c r="U19" t="n">
-        <v>372.31344539717</v>
+        <v>190.1286583052116</v>
       </c>
       <c r="V19" t="n">
-        <v>372.31344539717</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="W19" t="n">
-        <v>372.31344539717</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="X19" t="n">
-        <v>372.31344539717</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="Y19" t="n">
-        <v>372.31344539717</v>
+        <v>9.637550670645634</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.420652942102</v>
+        <v>302.4206529421025</v>
       </c>
       <c r="C20" t="n">
-        <v>263.580376016422</v>
+        <v>263.5803760164224</v>
       </c>
       <c r="D20" t="n">
-        <v>235.2253141658371</v>
+        <v>235.2253141658375</v>
       </c>
       <c r="E20" t="n">
-        <v>180.0891381731421</v>
+        <v>180.0891381731424</v>
       </c>
       <c r="F20" t="n">
-        <v>100.5329341751406</v>
+        <v>100.5329341751407</v>
       </c>
       <c r="G20" t="n">
         <v>13.87372479426011</v>
@@ -5750,25 +5750,25 @@
         <v>9.637550670645634</v>
       </c>
       <c r="J20" t="n">
-        <v>53.42792999998861</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="K20" t="n">
-        <v>172.6926195492283</v>
+        <v>124.0834648845625</v>
       </c>
       <c r="L20" t="n">
-        <v>182.7822666655285</v>
+        <v>243.3481544338022</v>
       </c>
       <c r="M20" t="n">
-        <v>182.7822666655285</v>
+        <v>243.3481544338022</v>
       </c>
       <c r="N20" t="n">
-        <v>302.0469562147682</v>
+        <v>362.612843983042</v>
       </c>
       <c r="O20" t="n">
-        <v>421.3116457640079</v>
+        <v>362.612843983042</v>
       </c>
       <c r="P20" t="n">
-        <v>421.3116457640079</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="Q20" t="n">
         <v>481.8775335322817</v>
@@ -5792,10 +5792,10 @@
         <v>459.658447190832</v>
       </c>
       <c r="X20" t="n">
-        <v>416.9025102123971</v>
+        <v>416.9025102123976</v>
       </c>
       <c r="Y20" t="n">
-        <v>358.1612473551078</v>
+        <v>358.1612473551082</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>481.8775335322817</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="C21" t="n">
-        <v>374.6962881951015</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="D21" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="E21" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="F21" t="n">
         <v>9.637550670645634</v>
@@ -5835,16 +5835,16 @@
         <v>162.7655353361923</v>
       </c>
       <c r="L21" t="n">
-        <v>162.7655353361923</v>
+        <v>282.030224885432</v>
       </c>
       <c r="M21" t="n">
-        <v>162.7655353361923</v>
+        <v>282.030224885432</v>
       </c>
       <c r="N21" t="n">
-        <v>162.7655353361923</v>
+        <v>364.9358251887519</v>
       </c>
       <c r="O21" t="n">
-        <v>245.6711356395122</v>
+        <v>364.9358251887519</v>
       </c>
       <c r="P21" t="n">
         <v>364.9358251887519</v>
@@ -5862,19 +5862,19 @@
         <v>481.8775335322817</v>
       </c>
       <c r="U21" t="n">
-        <v>481.8775335322817</v>
+        <v>360.1912876907964</v>
       </c>
       <c r="V21" t="n">
-        <v>481.8775335322817</v>
+        <v>360.1912876907964</v>
       </c>
       <c r="W21" t="n">
-        <v>481.8775335322817</v>
+        <v>360.1912876907964</v>
       </c>
       <c r="X21" t="n">
-        <v>481.8775335322817</v>
+        <v>253.0100423536162</v>
       </c>
       <c r="Y21" t="n">
-        <v>481.8775335322817</v>
+        <v>131.3237965121309</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="C22" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="D22" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="E22" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="F22" t="n">
         <v>9.637550670645634</v>
@@ -5911,49 +5911,49 @@
         <v>9.637550670645634</v>
       </c>
       <c r="K22" t="n">
-        <v>22.30033025638125</v>
+        <v>22.30033025638124</v>
       </c>
       <c r="L22" t="n">
-        <v>94.30794362013586</v>
+        <v>94.30794362013584</v>
       </c>
       <c r="M22" t="n">
         <v>180.8227753221922</v>
       </c>
       <c r="N22" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O22" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P22" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q22" t="n">
-        <v>372.31344539717</v>
+        <v>311.8149041466968</v>
       </c>
       <c r="R22" t="n">
-        <v>372.31344539717</v>
+        <v>253.0100423536162</v>
       </c>
       <c r="S22" t="n">
-        <v>372.31344539717</v>
+        <v>253.0100423536162</v>
       </c>
       <c r="T22" t="n">
-        <v>372.31344539717</v>
+        <v>253.0100423536162</v>
       </c>
       <c r="U22" t="n">
-        <v>372.31344539717</v>
+        <v>253.0100423536162</v>
       </c>
       <c r="V22" t="n">
-        <v>372.31344539717</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="W22" t="n">
-        <v>253.0100423536162</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="X22" t="n">
-        <v>253.0100423536162</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="Y22" t="n">
-        <v>253.0100423536162</v>
+        <v>131.3237965121309</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>9.637550670645634</v>
       </c>
       <c r="J23" t="n">
-        <v>9.637550670645634</v>
+        <v>53.42792999998859</v>
       </c>
       <c r="K23" t="n">
-        <v>128.9022402198854</v>
+        <v>53.42792999998859</v>
       </c>
       <c r="L23" t="n">
-        <v>182.7822666655285</v>
+        <v>124.0834648845625</v>
       </c>
       <c r="M23" t="n">
-        <v>182.7822666655285</v>
+        <v>124.0834648845625</v>
       </c>
       <c r="N23" t="n">
-        <v>182.7822666655285</v>
+        <v>243.3481544338022</v>
       </c>
       <c r="O23" t="n">
-        <v>302.0469562147682</v>
+        <v>362.612843983042</v>
       </c>
       <c r="P23" t="n">
-        <v>421.3116457640079</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="Q23" t="n">
         <v>481.8775335322817</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>282.2881430962947</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="C24" t="n">
-        <v>282.2881430962947</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="D24" t="n">
-        <v>282.2881430962947</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="E24" t="n">
-        <v>160.6018972548094</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="F24" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="G24" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="H24" t="n">
         <v>9.637550670645634</v>
@@ -6066,25 +6066,25 @@
         <v>9.637550670645634</v>
       </c>
       <c r="J24" t="n">
-        <v>43.50084578695257</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7655353361923</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="L24" t="n">
-        <v>245.6711356395122</v>
+        <v>128.9022402198854</v>
       </c>
       <c r="M24" t="n">
-        <v>245.6711356395122</v>
+        <v>248.1669297691251</v>
       </c>
       <c r="N24" t="n">
-        <v>245.6711356395122</v>
+        <v>248.1669297691251</v>
       </c>
       <c r="O24" t="n">
-        <v>364.9358251887519</v>
+        <v>362.612843983042</v>
       </c>
       <c r="P24" t="n">
-        <v>364.9358251887519</v>
+        <v>481.8775335322817</v>
       </c>
       <c r="Q24" t="n">
         <v>481.8775335322817</v>
@@ -6093,25 +6093,25 @@
         <v>403.97438893778</v>
       </c>
       <c r="S24" t="n">
-        <v>403.97438893778</v>
+        <v>282.2881430962947</v>
       </c>
       <c r="T24" t="n">
-        <v>403.97438893778</v>
+        <v>160.6018972548094</v>
       </c>
       <c r="U24" t="n">
-        <v>403.97438893778</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="V24" t="n">
-        <v>282.2881430962947</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="W24" t="n">
-        <v>282.2881430962947</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="X24" t="n">
-        <v>282.2881430962947</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="Y24" t="n">
-        <v>282.2881430962947</v>
+        <v>131.3237965121309</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645634</v>
       </c>
       <c r="C25" t="n">
         <v>9.637550670645634</v>
@@ -6148,49 +6148,49 @@
         <v>9.637550670645634</v>
       </c>
       <c r="K25" t="n">
-        <v>22.30033025638125</v>
+        <v>22.30033025638124</v>
       </c>
       <c r="L25" t="n">
-        <v>94.30794362013586</v>
+        <v>94.30794362013584</v>
       </c>
       <c r="M25" t="n">
         <v>180.8227753221922</v>
       </c>
       <c r="N25" t="n">
-        <v>270.4217395913711</v>
+        <v>270.421739591371</v>
       </c>
       <c r="O25" t="n">
-        <v>337.8442885511333</v>
+        <v>337.8442885511332</v>
       </c>
       <c r="P25" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Q25" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="R25" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="S25" t="n">
-        <v>372.31344539717</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="T25" t="n">
-        <v>372.31344539717</v>
+        <v>250.6271995556846</v>
       </c>
       <c r="U25" t="n">
-        <v>372.31344539717</v>
+        <v>250.6271995556846</v>
       </c>
       <c r="V25" t="n">
-        <v>372.31344539717</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="W25" t="n">
-        <v>372.31344539717</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="X25" t="n">
-        <v>372.31344539717</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="Y25" t="n">
-        <v>250.6271995556847</v>
+        <v>9.637550670645634</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1376.381754553604</v>
+        <v>1376.381754553605</v>
       </c>
       <c r="C26" t="n">
-        <v>1169.37214947137</v>
+        <v>1169.372149471371</v>
       </c>
       <c r="D26" t="n">
-        <v>972.847759464232</v>
+        <v>972.8477594642322</v>
       </c>
       <c r="E26" t="n">
         <v>749.5422553149831</v>
@@ -6215,34 +6215,34 @@
         <v>501.8167231604275</v>
       </c>
       <c r="G26" t="n">
-        <v>246.9881856229929</v>
+        <v>246.9881856229927</v>
       </c>
       <c r="H26" t="n">
-        <v>74.5826833428244</v>
+        <v>74.58268334282437</v>
       </c>
       <c r="I26" t="n">
         <v>51.56523011436654</v>
       </c>
       <c r="J26" t="n">
-        <v>255.7807402247651</v>
+        <v>95.35560944370948</v>
       </c>
       <c r="K26" t="n">
-        <v>604.1128908673022</v>
+        <v>443.6877600862467</v>
       </c>
       <c r="L26" t="n">
-        <v>1049.622373784973</v>
+        <v>889.1972430039175</v>
       </c>
       <c r="M26" t="n">
-        <v>1542.47107004998</v>
+        <v>1221.620808487869</v>
       </c>
       <c r="N26" t="n">
-        <v>1864.756421369329</v>
+        <v>1702.337036669269</v>
       </c>
       <c r="O26" t="n">
-        <v>2122.952988320794</v>
+        <v>2120.95873440179</v>
       </c>
       <c r="P26" t="n">
-        <v>2464.80986831922</v>
+        <v>2304.384737538164</v>
       </c>
       <c r="Q26" t="n">
         <v>2525.375756087494</v>
@@ -6251,7 +6251,7 @@
         <v>2578.261505718327</v>
       </c>
       <c r="S26" t="n">
-        <v>2546.1741821731</v>
+        <v>2546.174182173099</v>
       </c>
       <c r="T26" t="n">
         <v>2486.978066635114</v>
@@ -6263,13 +6263,13 @@
         <v>2228.51594777</v>
       </c>
       <c r="W26" t="n">
-        <v>2038.127533271996</v>
+        <v>2038.127533271997</v>
       </c>
       <c r="X26" t="n">
         <v>1827.202268137008</v>
       </c>
       <c r="Y26" t="n">
-        <v>1600.291677123164</v>
+        <v>1600.291677123165</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>860.824702699199</v>
+        <v>563.4942160977914</v>
       </c>
       <c r="C27" t="n">
-        <v>688.0715876210161</v>
+        <v>501.7188557359511</v>
       </c>
       <c r="D27" t="n">
-        <v>540.48328097996</v>
+        <v>354.1305490948949</v>
       </c>
       <c r="E27" t="n">
-        <v>382.8737519828147</v>
+        <v>196.5210200977497</v>
       </c>
       <c r="F27" t="n">
-        <v>237.9179619994316</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="G27" t="n">
-        <v>237.9179619994316</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="H27" t="n">
-        <v>129.1004622312988</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="I27" t="n">
         <v>51.56523011436654</v>
@@ -6327,28 +6327,28 @@
         <v>2135.278974238888</v>
       </c>
       <c r="R27" t="n">
-        <v>2135.278974238888</v>
+        <v>2057.375829644386</v>
       </c>
       <c r="S27" t="n">
-        <v>2133.602798682692</v>
+        <v>1892.017243333109</v>
       </c>
       <c r="T27" t="n">
-        <v>2098.051027031875</v>
+        <v>1692.783060927209</v>
       </c>
       <c r="U27" t="n">
-        <v>1926.888323332597</v>
+        <v>1465.875425976108</v>
       </c>
       <c r="V27" t="n">
-        <v>1692.637079858198</v>
+        <v>1231.624182501709</v>
       </c>
       <c r="W27" t="n">
-        <v>1440.122588191531</v>
+        <v>979.1096908350422</v>
       </c>
       <c r="X27" t="n">
-        <v>1233.595689597109</v>
+        <v>772.5827922406197</v>
       </c>
       <c r="Y27" t="n">
-        <v>1027.867253820759</v>
+        <v>730.5367672193519</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.57301830125654</v>
+        <v>56.90964050191343</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22860791370962</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="D28" t="n">
-        <v>57.22860791370962</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="E28" t="n">
-        <v>57.22860791370962</v>
+        <v>57.22860791370959</v>
       </c>
       <c r="F28" t="n">
-        <v>57.22860791370962</v>
+        <v>57.22860791370959</v>
       </c>
       <c r="G28" t="n">
         <v>51.56523011436654</v>
@@ -6394,40 +6394,40 @@
         <v>222.7504547659131</v>
       </c>
       <c r="N28" t="n">
-        <v>406.2109540585138</v>
+        <v>400.5475762591706</v>
       </c>
       <c r="O28" t="n">
-        <v>634.0586337993317</v>
+        <v>467.9701252189328</v>
       </c>
       <c r="P28" t="n">
-        <v>668.5277906453683</v>
+        <v>662.8644128460251</v>
       </c>
       <c r="Q28" t="n">
-        <v>668.5277906453683</v>
+        <v>662.8644128460251</v>
       </c>
       <c r="R28" t="n">
-        <v>667.8433796957238</v>
+        <v>662.1800018963805</v>
       </c>
       <c r="S28" t="n">
-        <v>611.0988787980663</v>
+        <v>605.435500998723</v>
       </c>
       <c r="T28" t="n">
-        <v>545.1664146560965</v>
+        <v>539.5030368567533</v>
       </c>
       <c r="U28" t="n">
-        <v>419.9202102279854</v>
+        <v>414.2568324286422</v>
       </c>
       <c r="V28" t="n">
-        <v>328.1113572790882</v>
+        <v>322.447979479745</v>
       </c>
       <c r="W28" t="n">
-        <v>202.8113671377905</v>
+        <v>197.1479893384473</v>
       </c>
       <c r="X28" t="n">
-        <v>138.0691719006406</v>
+        <v>132.4057941012975</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.79332622363323</v>
+        <v>75.12994842429009</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>1169.372149471371</v>
       </c>
       <c r="D29" t="n">
-        <v>972.8477594642318</v>
+        <v>972.8477594642325</v>
       </c>
       <c r="E29" t="n">
-        <v>749.5422553149828</v>
+        <v>749.5422553149833</v>
       </c>
       <c r="F29" t="n">
-        <v>501.8167231604272</v>
+        <v>501.8167231604277</v>
       </c>
       <c r="G29" t="n">
-        <v>246.9881856229928</v>
+        <v>246.9881856229929</v>
       </c>
       <c r="H29" t="n">
-        <v>74.58268334282437</v>
+        <v>74.5826833428244</v>
       </c>
       <c r="I29" t="n">
         <v>51.56523011436654</v>
@@ -6464,22 +6464,22 @@
         <v>255.7807402247651</v>
       </c>
       <c r="K29" t="n">
-        <v>604.1128908673023</v>
+        <v>443.6877600862467</v>
       </c>
       <c r="L29" t="n">
-        <v>1049.622373784973</v>
+        <v>889.1972430039175</v>
       </c>
       <c r="M29" t="n">
         <v>1382.045939268924</v>
       </c>
       <c r="N29" t="n">
-        <v>1862.762167450325</v>
+        <v>1704.331290588274</v>
       </c>
       <c r="O29" t="n">
-        <v>2120.95873440179</v>
+        <v>1962.527857539739</v>
       </c>
       <c r="P29" t="n">
-        <v>2464.80986831922</v>
+        <v>2304.384737538165</v>
       </c>
       <c r="Q29" t="n">
         <v>2525.375756087494</v>
@@ -6494,19 +6494,19 @@
         <v>2486.978066635113</v>
       </c>
       <c r="U29" t="n">
-        <v>2396.685275926554</v>
+        <v>2396.685275926555</v>
       </c>
       <c r="V29" t="n">
-        <v>2228.51594777</v>
+        <v>2228.515947770001</v>
       </c>
       <c r="W29" t="n">
-        <v>2038.127533271996</v>
+        <v>2038.127533271997</v>
       </c>
       <c r="X29" t="n">
-        <v>1827.202268137008</v>
+        <v>1827.202268137009</v>
       </c>
       <c r="Y29" t="n">
-        <v>1600.291677123164</v>
+        <v>1600.291677123165</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>703.2151737020538</v>
+        <v>399.8118053427097</v>
       </c>
       <c r="C30" t="n">
-        <v>530.4620586238709</v>
+        <v>227.0586902645269</v>
       </c>
       <c r="D30" t="n">
-        <v>382.8737519828147</v>
+        <v>79.47038362347075</v>
       </c>
       <c r="E30" t="n">
-        <v>382.8737519828147</v>
+        <v>79.47038362347075</v>
       </c>
       <c r="F30" t="n">
-        <v>237.9179619994316</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="G30" t="n">
-        <v>237.9179619994316</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="H30" t="n">
-        <v>129.1004622312988</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="I30" t="n">
         <v>51.56523011436654</v>
@@ -6582,10 +6582,10 @@
         <v>979.1096908350422</v>
       </c>
       <c r="X30" t="n">
-        <v>912.3037498448821</v>
+        <v>772.5827922406197</v>
       </c>
       <c r="Y30" t="n">
-        <v>706.5753140685325</v>
+        <v>566.8543564642702</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.57301830125648</v>
+        <v>56.90964050191346</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22860791370959</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="D31" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370962</v>
       </c>
       <c r="E31" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370962</v>
       </c>
       <c r="F31" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370962</v>
       </c>
       <c r="G31" t="n">
         <v>51.56523011436654</v>
@@ -6625,46 +6625,46 @@
         <v>64.22800970010215</v>
       </c>
       <c r="L31" t="n">
-        <v>136.2356230638567</v>
+        <v>224.4337802879355</v>
       </c>
       <c r="M31" t="n">
-        <v>222.7504547659131</v>
+        <v>310.9486119899918</v>
       </c>
       <c r="N31" t="n">
-        <v>406.2109540585136</v>
+        <v>400.5475762591707</v>
       </c>
       <c r="O31" t="n">
-        <v>473.6335030182759</v>
+        <v>467.9701252189329</v>
       </c>
       <c r="P31" t="n">
-        <v>668.5277906453681</v>
+        <v>662.8644128460252</v>
       </c>
       <c r="Q31" t="n">
-        <v>668.5277906453681</v>
+        <v>662.8644128460252</v>
       </c>
       <c r="R31" t="n">
-        <v>667.8433796957236</v>
+        <v>662.1800018963806</v>
       </c>
       <c r="S31" t="n">
-        <v>611.098878798066</v>
+        <v>605.4355009987231</v>
       </c>
       <c r="T31" t="n">
-        <v>545.1664146560963</v>
+        <v>539.5030368567534</v>
       </c>
       <c r="U31" t="n">
-        <v>419.9202102279852</v>
+        <v>414.2568324286423</v>
       </c>
       <c r="V31" t="n">
-        <v>328.111357279088</v>
+        <v>322.4479794797451</v>
       </c>
       <c r="W31" t="n">
-        <v>202.8113671377904</v>
+        <v>197.1479893384474</v>
       </c>
       <c r="X31" t="n">
-        <v>138.0691719006405</v>
+        <v>132.4057941012975</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.79332622363314</v>
+        <v>75.12994842429015</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>1169.372149471371</v>
       </c>
       <c r="D32" t="n">
-        <v>972.847759464232</v>
+        <v>972.8477594642325</v>
       </c>
       <c r="E32" t="n">
-        <v>749.542255314983</v>
+        <v>749.5422553149834</v>
       </c>
       <c r="F32" t="n">
-        <v>501.8167231604275</v>
+        <v>501.816723160428</v>
       </c>
       <c r="G32" t="n">
         <v>246.9881856229927</v>
       </c>
       <c r="H32" t="n">
-        <v>74.58268334282434</v>
+        <v>74.58268334282437</v>
       </c>
       <c r="I32" t="n">
         <v>51.56523011436654</v>
       </c>
       <c r="J32" t="n">
-        <v>255.7807402247651</v>
+        <v>95.35560944370948</v>
       </c>
       <c r="K32" t="n">
-        <v>443.6877600862467</v>
+        <v>283.2626293051911</v>
       </c>
       <c r="L32" t="n">
-        <v>889.1972430039175</v>
+        <v>728.7721122228618</v>
       </c>
       <c r="M32" t="n">
-        <v>1382.045939268924</v>
+        <v>1061.195677706813</v>
       </c>
       <c r="N32" t="n">
-        <v>1864.75642136933</v>
+        <v>1541.911905888214</v>
       </c>
       <c r="O32" t="n">
-        <v>2122.952988320795</v>
+        <v>1960.533603620734</v>
       </c>
       <c r="P32" t="n">
-        <v>2306.378991457169</v>
+        <v>2304.384737538164</v>
       </c>
       <c r="Q32" t="n">
         <v>2525.375756087494</v>
@@ -6725,10 +6725,10 @@
         <v>2578.261505718327</v>
       </c>
       <c r="S32" t="n">
-        <v>2546.1741821731</v>
+        <v>2546.174182173099</v>
       </c>
       <c r="T32" t="n">
-        <v>2486.978066635114</v>
+        <v>2486.978066635113</v>
       </c>
       <c r="U32" t="n">
         <v>2396.685275926554</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>674.4719708141339</v>
+        <v>641.3973606922929</v>
       </c>
       <c r="C33" t="n">
-        <v>501.7188557359511</v>
+        <v>468.64424561411</v>
       </c>
       <c r="D33" t="n">
-        <v>354.1305490948949</v>
+        <v>321.0559389730539</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5210200977497</v>
+        <v>321.0559389730539</v>
       </c>
       <c r="F33" t="n">
-        <v>51.56523011436654</v>
+        <v>188.6765528696762</v>
       </c>
       <c r="G33" t="n">
         <v>51.56523011436654</v>
@@ -6804,25 +6804,25 @@
         <v>2135.278974238888</v>
       </c>
       <c r="S33" t="n">
-        <v>1969.92038792761</v>
+        <v>2133.602798682692</v>
       </c>
       <c r="T33" t="n">
-        <v>1803.760815643552</v>
+        <v>1934.368616276793</v>
       </c>
       <c r="U33" t="n">
-        <v>1740.535591447532</v>
+        <v>1707.460981325691</v>
       </c>
       <c r="V33" t="n">
-        <v>1506.284347973133</v>
+        <v>1473.209737851292</v>
       </c>
       <c r="W33" t="n">
-        <v>1253.769856306466</v>
+        <v>1220.695246184625</v>
       </c>
       <c r="X33" t="n">
-        <v>1047.242957712044</v>
+        <v>1014.168347590203</v>
       </c>
       <c r="Y33" t="n">
-        <v>841.5145219356943</v>
+        <v>808.4399118138533</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.57301830125643</v>
+        <v>56.90964050191343</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22860791370956</v>
+        <v>51.56523011436654</v>
       </c>
       <c r="D34" t="n">
-        <v>57.22860791370956</v>
+        <v>57.22860791370959</v>
       </c>
       <c r="E34" t="n">
-        <v>57.22860791370956</v>
+        <v>57.22860791370959</v>
       </c>
       <c r="F34" t="n">
-        <v>57.22860791370956</v>
+        <v>57.22860791370959</v>
       </c>
       <c r="G34" t="n">
         <v>51.56523011436654</v>
@@ -6859,10 +6859,10 @@
         <v>51.56523011436654</v>
       </c>
       <c r="K34" t="n">
-        <v>224.6531404811577</v>
+        <v>64.22800970010215</v>
       </c>
       <c r="L34" t="n">
-        <v>296.6607538449123</v>
+        <v>136.2356230638567</v>
       </c>
       <c r="M34" t="n">
         <v>383.1755855469687</v>
@@ -6877,31 +6877,31 @@
         <v>574.6662556219464</v>
       </c>
       <c r="Q34" t="n">
-        <v>668.5277906453676</v>
+        <v>662.8644128460251</v>
       </c>
       <c r="R34" t="n">
-        <v>667.8433796957232</v>
+        <v>662.1800018963805</v>
       </c>
       <c r="S34" t="n">
-        <v>611.0988787980658</v>
+        <v>605.435500998723</v>
       </c>
       <c r="T34" t="n">
-        <v>545.1664146560961</v>
+        <v>539.5030368567533</v>
       </c>
       <c r="U34" t="n">
-        <v>419.920210227985</v>
+        <v>414.2568324286422</v>
       </c>
       <c r="V34" t="n">
-        <v>328.1113572790878</v>
+        <v>322.447979479745</v>
       </c>
       <c r="W34" t="n">
-        <v>202.8113671377902</v>
+        <v>197.1479893384473</v>
       </c>
       <c r="X34" t="n">
-        <v>138.0691719006404</v>
+        <v>132.4057941012975</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.79332622363306</v>
+        <v>75.12994842429009</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>41.92767944372089</v>
       </c>
       <c r="I35" t="n">
-        <v>50.81705934118645</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J35" t="n">
-        <v>190.2867735032912</v>
+        <v>190.2867735032914</v>
       </c>
       <c r="K35" t="n">
-        <v>570.0677099525055</v>
+        <v>378.1937933647731</v>
       </c>
       <c r="L35" t="n">
-        <v>855.1520620891206</v>
+        <v>663.2781455013882</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.575627573072</v>
+        <v>995.7017109853394</v>
       </c>
       <c r="N35" t="n">
-        <v>1509.860978892422</v>
+        <v>1317.987062304689</v>
       </c>
       <c r="O35" t="n">
         <v>1768.057545843887</v>
@@ -6974,7 +6974,7 @@
         <v>1874.987708418626</v>
       </c>
       <c r="W35" t="n">
-        <v>1716.686617465849</v>
+        <v>1716.68661746585</v>
       </c>
       <c r="X35" t="n">
         <v>1537.848675876088</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>851.1871520285533</v>
+        <v>604.1785341956453</v>
       </c>
       <c r="C36" t="n">
-        <v>678.4340369503705</v>
+        <v>431.4254191174625</v>
       </c>
       <c r="D36" t="n">
-        <v>530.8457303093144</v>
+        <v>283.8371124764063</v>
       </c>
       <c r="E36" t="n">
-        <v>373.2362013121691</v>
+        <v>283.8371124764063</v>
       </c>
       <c r="F36" t="n">
-        <v>228.2804113287859</v>
+        <v>138.8813224930232</v>
       </c>
       <c r="G36" t="n">
-        <v>228.2804113287859</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4629115606532</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I36" t="n">
         <v>41.92767944372089</v>
@@ -7020,46 +7020,46 @@
         <v>260.2743528123684</v>
       </c>
       <c r="L36" t="n">
-        <v>569.1846284987755</v>
+        <v>539.9271771165777</v>
       </c>
       <c r="M36" t="n">
-        <v>982.4685439431307</v>
+        <v>953.2110925609329</v>
       </c>
       <c r="N36" t="n">
-        <v>1422.089586868059</v>
+        <v>1392.832135485861</v>
       </c>
       <c r="O36" t="n">
-        <v>1756.628935509046</v>
+        <v>1727.371484126848</v>
       </c>
       <c r="P36" t="n">
-        <v>2008.699715224713</v>
+        <v>1979.442263842515</v>
       </c>
       <c r="Q36" t="n">
         <v>2096.383972186045</v>
       </c>
       <c r="R36" t="n">
-        <v>2018.480827591543</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="S36" t="n">
-        <v>1853.122241280265</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T36" t="n">
-        <v>1849.657793174675</v>
+        <v>1897.149789780145</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.750158223574</v>
+        <v>1670.242154829044</v>
       </c>
       <c r="V36" t="n">
-        <v>1388.498914749174</v>
+        <v>1435.990911354645</v>
       </c>
       <c r="W36" t="n">
-        <v>1135.984423082508</v>
+        <v>1183.476419687978</v>
       </c>
       <c r="X36" t="n">
-        <v>929.4575244880851</v>
+        <v>976.9495210935553</v>
       </c>
       <c r="Y36" t="n">
-        <v>851.1871520285533</v>
+        <v>771.2210853172057</v>
       </c>
     </row>
     <row r="37">
@@ -7108,7 +7108,7 @@
         <v>302.7118683644463</v>
       </c>
       <c r="O37" t="n">
-        <v>370.1344173242086</v>
+        <v>370.1344173242085</v>
       </c>
       <c r="P37" t="n">
         <v>404.6035741702452</v>
@@ -7120,19 +7120,19 @@
         <v>404.6035741702452</v>
       </c>
       <c r="S37" t="n">
-        <v>379.7092907467912</v>
+        <v>379.9463968178148</v>
       </c>
       <c r="T37" t="n">
-        <v>345.8641501500485</v>
+        <v>346.1012562210722</v>
       </c>
       <c r="U37" t="n">
-        <v>252.7052692671646</v>
+        <v>252.9423753381882</v>
       </c>
       <c r="V37" t="n">
-        <v>192.9837398634944</v>
+        <v>193.220845934518</v>
       </c>
       <c r="W37" t="n">
-        <v>99.77107326742393</v>
+        <v>100.0081793384475</v>
       </c>
       <c r="X37" t="n">
         <v>67.11620157550118</v>
@@ -7169,31 +7169,31 @@
         <v>41.92767944372089</v>
       </c>
       <c r="I38" t="n">
-        <v>50.81705934118645</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J38" t="n">
-        <v>94.60743867052942</v>
+        <v>85.71805877306385</v>
       </c>
       <c r="K38" t="n">
-        <v>282.5144585320111</v>
+        <v>273.6250786345455</v>
       </c>
       <c r="L38" t="n">
-        <v>567.5988106686261</v>
+        <v>750.5833473588933</v>
       </c>
       <c r="M38" t="n">
-        <v>900.0223761525774</v>
+        <v>1269.438380474939</v>
       </c>
       <c r="N38" t="n">
-        <v>1222.307727471927</v>
+        <v>1591.723731794289</v>
       </c>
       <c r="O38" t="n">
-        <v>1480.504294423392</v>
+        <v>1849.920298745754</v>
       </c>
       <c r="P38" t="n">
-        <v>1759.609632392528</v>
+        <v>2033.346301882128</v>
       </c>
       <c r="Q38" t="n">
-        <v>2012.049436748535</v>
+        <v>2093.912189650402</v>
       </c>
       <c r="R38" t="n">
         <v>2096.383972186045</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>801.945742898798</v>
+        <v>519.8786301601051</v>
       </c>
       <c r="C39" t="n">
-        <v>629.1926278206151</v>
+        <v>347.1255150819223</v>
       </c>
       <c r="D39" t="n">
-        <v>481.604321179559</v>
+        <v>199.5372084408662</v>
       </c>
       <c r="E39" t="n">
-        <v>323.9947921824137</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="F39" t="n">
-        <v>179.0390021990305</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="G39" t="n">
         <v>41.92767944372089</v>
@@ -7251,52 +7251,52 @@
         <v>41.92767944372089</v>
       </c>
       <c r="J39" t="n">
-        <v>75.79097456002782</v>
+        <v>46.53352317783006</v>
       </c>
       <c r="K39" t="n">
-        <v>260.2743528123684</v>
+        <v>231.0169014301706</v>
       </c>
       <c r="L39" t="n">
-        <v>569.1846284987755</v>
+        <v>539.9271771165777</v>
       </c>
       <c r="M39" t="n">
-        <v>982.4685439431307</v>
+        <v>953.2110925609329</v>
       </c>
       <c r="N39" t="n">
-        <v>1422.089586868059</v>
+        <v>1392.832135485861</v>
       </c>
       <c r="O39" t="n">
-        <v>1756.628935509046</v>
+        <v>1727.371484126848</v>
       </c>
       <c r="P39" t="n">
-        <v>2008.699715224713</v>
+        <v>1979.442263842515</v>
       </c>
       <c r="Q39" t="n">
         <v>2096.383972186045</v>
       </c>
       <c r="R39" t="n">
-        <v>2096.383972186045</v>
+        <v>2018.480827591543</v>
       </c>
       <c r="S39" t="n">
-        <v>2096.383972186045</v>
+        <v>2012.084068150504</v>
       </c>
       <c r="T39" t="n">
-        <v>2092.919524080454</v>
+        <v>1812.849885744605</v>
       </c>
       <c r="U39" t="n">
-        <v>1868.009363532197</v>
+        <v>1585.942250793503</v>
       </c>
       <c r="V39" t="n">
-        <v>1633.758120057797</v>
+        <v>1351.691007319104</v>
       </c>
       <c r="W39" t="n">
-        <v>1381.243628391131</v>
+        <v>1099.176515652438</v>
       </c>
       <c r="X39" t="n">
-        <v>1174.716729796708</v>
+        <v>892.6496170580151</v>
       </c>
       <c r="Y39" t="n">
-        <v>968.9882940203585</v>
+        <v>686.9211812816656</v>
       </c>
     </row>
     <row r="40">
@@ -7345,7 +7345,7 @@
         <v>302.7118683644463</v>
       </c>
       <c r="O40" t="n">
-        <v>370.1344173242086</v>
+        <v>370.1344173242085</v>
       </c>
       <c r="P40" t="n">
         <v>404.6035741702452</v>
@@ -7360,19 +7360,19 @@
         <v>379.9463968178148</v>
       </c>
       <c r="T40" t="n">
-        <v>346.1012562210722</v>
+        <v>345.8641501500485</v>
       </c>
       <c r="U40" t="n">
-        <v>252.9423753381882</v>
+        <v>252.7052692671646</v>
       </c>
       <c r="V40" t="n">
-        <v>193.2208459345181</v>
+        <v>192.9837398634944</v>
       </c>
       <c r="W40" t="n">
-        <v>100.0081793384476</v>
+        <v>99.77107326742393</v>
       </c>
       <c r="X40" t="n">
-        <v>67.35330764652483</v>
+        <v>67.11620157550118</v>
       </c>
       <c r="Y40" t="n">
         <v>41.92767944372089</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1151.20280938314</v>
+        <v>1151.202809383139</v>
       </c>
       <c r="C41" t="n">
-        <v>976.2805278461329</v>
+        <v>976.2805278461324</v>
       </c>
       <c r="D41" t="n">
-        <v>811.8434613842212</v>
+        <v>811.8434613842205</v>
       </c>
       <c r="E41" t="n">
-        <v>620.6252807801992</v>
+        <v>620.6252807801986</v>
       </c>
       <c r="F41" t="n">
-        <v>404.9870721708708</v>
+        <v>404.9870721708701</v>
       </c>
       <c r="G41" t="n">
         <v>182.2458581786622</v>
@@ -7406,31 +7406,31 @@
         <v>41.92767944372089</v>
       </c>
       <c r="I41" t="n">
-        <v>50.81705934118645</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J41" t="n">
-        <v>190.2867735032911</v>
+        <v>85.71805877306385</v>
       </c>
       <c r="K41" t="n">
-        <v>378.1937933647727</v>
+        <v>273.6250786345455</v>
       </c>
       <c r="L41" t="n">
-        <v>663.2781455013878</v>
+        <v>750.5833473588933</v>
       </c>
       <c r="M41" t="n">
-        <v>995.7017109853392</v>
+        <v>1269.438380474939</v>
       </c>
       <c r="N41" t="n">
-        <v>1317.987062304689</v>
+        <v>1591.723731794289</v>
       </c>
       <c r="O41" t="n">
-        <v>1576.183629256154</v>
+        <v>1849.920298745754</v>
       </c>
       <c r="P41" t="n">
-        <v>1951.483548980261</v>
+        <v>2033.346301882128</v>
       </c>
       <c r="Q41" t="n">
-        <v>2012.049436748535</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R41" t="n">
         <v>2096.383972186045</v>
@@ -7442,19 +7442,19 @@
         <v>2069.275180193286</v>
       </c>
       <c r="U41" t="n">
-        <v>2011.069713029954</v>
+        <v>2011.069713029953</v>
       </c>
       <c r="V41" t="n">
-        <v>1874.987708418627</v>
+        <v>1874.987708418626</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.68661746585</v>
+        <v>1716.686617465849</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.848675876089</v>
+        <v>1537.848675876088</v>
       </c>
       <c r="Y41" t="n">
-        <v>1343.025408407473</v>
+        <v>1343.025408407472</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>365.3917340840956</v>
+        <v>654.3574362577417</v>
       </c>
       <c r="C42" t="n">
-        <v>365.3917340840956</v>
+        <v>481.604321179559</v>
       </c>
       <c r="D42" t="n">
-        <v>365.3917340840956</v>
+        <v>481.604321179559</v>
       </c>
       <c r="E42" t="n">
-        <v>365.3917340840956</v>
+        <v>323.9947921824137</v>
       </c>
       <c r="F42" t="n">
-        <v>365.3917340840956</v>
+        <v>179.0390021990305</v>
       </c>
       <c r="G42" t="n">
-        <v>228.2804113287859</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4629115606532</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="I42" t="n">
         <v>41.92767944372089</v>
@@ -7491,22 +7491,22 @@
         <v>75.79097456002782</v>
       </c>
       <c r="K42" t="n">
-        <v>260.2743528123684</v>
+        <v>231.0169014301706</v>
       </c>
       <c r="L42" t="n">
-        <v>569.1846284987755</v>
+        <v>539.9271771165777</v>
       </c>
       <c r="M42" t="n">
-        <v>982.4685439431307</v>
+        <v>953.2110925609329</v>
       </c>
       <c r="N42" t="n">
-        <v>1422.089586868059</v>
+        <v>1392.832135485861</v>
       </c>
       <c r="O42" t="n">
-        <v>1756.628935509046</v>
+        <v>1727.371484126848</v>
       </c>
       <c r="P42" t="n">
-        <v>2008.699715224713</v>
+        <v>1979.442263842515</v>
       </c>
       <c r="Q42" t="n">
         <v>2096.383972186045</v>
@@ -7518,22 +7518,22 @@
         <v>1853.122241280265</v>
       </c>
       <c r="T42" t="n">
-        <v>1658.362989668595</v>
+        <v>1653.888058874366</v>
       </c>
       <c r="U42" t="n">
-        <v>1431.455354717494</v>
+        <v>1426.980423923265</v>
       </c>
       <c r="V42" t="n">
-        <v>1197.204111243095</v>
+        <v>1192.729180448865</v>
       </c>
       <c r="W42" t="n">
-        <v>944.6896195764281</v>
+        <v>940.2146887821988</v>
       </c>
       <c r="X42" t="n">
-        <v>738.1627209820056</v>
+        <v>733.6877901877763</v>
       </c>
       <c r="Y42" t="n">
-        <v>532.434285205656</v>
+        <v>654.3574362577417</v>
       </c>
     </row>
     <row r="43">
@@ -7582,19 +7582,19 @@
         <v>302.7118683644463</v>
       </c>
       <c r="O43" t="n">
-        <v>370.1344173242086</v>
+        <v>370.1344173242085</v>
       </c>
       <c r="P43" t="n">
         <v>404.6035741702452</v>
       </c>
       <c r="Q43" t="n">
-        <v>404.6035741702452</v>
+        <v>404.3664680992215</v>
       </c>
       <c r="R43" t="n">
-        <v>404.6035741702452</v>
+        <v>404.3664680992215</v>
       </c>
       <c r="S43" t="n">
-        <v>379.9463968178148</v>
+        <v>379.7092907467912</v>
       </c>
       <c r="T43" t="n">
         <v>345.8641501500485</v>
@@ -7625,16 +7625,16 @@
         <v>1151.20280938314</v>
       </c>
       <c r="C44" t="n">
-        <v>976.2805278461325</v>
+        <v>976.2805278461332</v>
       </c>
       <c r="D44" t="n">
-        <v>811.8434613842207</v>
+        <v>811.8434613842214</v>
       </c>
       <c r="E44" t="n">
-        <v>620.6252807801986</v>
+        <v>620.6252807801993</v>
       </c>
       <c r="F44" t="n">
-        <v>404.98707217087</v>
+        <v>404.9870721708708</v>
       </c>
       <c r="G44" t="n">
         <v>182.2458581786622</v>
@@ -7643,22 +7643,22 @@
         <v>41.92767944372089</v>
       </c>
       <c r="I44" t="n">
-        <v>50.81705934118645</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="J44" t="n">
-        <v>94.60743867052942</v>
+        <v>277.5919753607965</v>
       </c>
       <c r="K44" t="n">
-        <v>282.5144585320111</v>
+        <v>465.4989952222782</v>
       </c>
       <c r="L44" t="n">
-        <v>567.5988106686261</v>
+        <v>750.5833473588932</v>
       </c>
       <c r="M44" t="n">
-        <v>995.7017109853393</v>
+        <v>1083.006912842844</v>
       </c>
       <c r="N44" t="n">
-        <v>1509.860978892422</v>
+        <v>1405.292264162194</v>
       </c>
       <c r="O44" t="n">
         <v>1768.057545843887</v>
@@ -7673,25 +7673,25 @@
         <v>2096.383972186045</v>
       </c>
       <c r="S44" t="n">
-        <v>2096.383972186044</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="T44" t="n">
-        <v>2069.275180193285</v>
+        <v>2069.275180193286</v>
       </c>
       <c r="U44" t="n">
         <v>2011.069713029953</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.987708418626</v>
+        <v>1874.987708418627</v>
       </c>
       <c r="W44" t="n">
         <v>1716.68661746585</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.848675876088</v>
+        <v>1537.848675876089</v>
       </c>
       <c r="Y44" t="n">
-        <v>1343.025408407472</v>
+        <v>1343.025408407473</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.0451239014524</v>
+        <v>664.8344201434883</v>
       </c>
       <c r="C45" t="n">
-        <v>549.2920088232695</v>
+        <v>492.0813050653055</v>
       </c>
       <c r="D45" t="n">
-        <v>549.2920088232695</v>
+        <v>344.4929984242493</v>
       </c>
       <c r="E45" t="n">
-        <v>391.6824798261242</v>
+        <v>186.883469427104</v>
       </c>
       <c r="F45" t="n">
-        <v>246.7266898427411</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="G45" t="n">
-        <v>109.6153670874315</v>
+        <v>41.92767944372089</v>
       </c>
       <c r="H45" t="n">
         <v>41.92767944372089</v>
@@ -7731,19 +7731,19 @@
         <v>260.2743528123684</v>
       </c>
       <c r="L45" t="n">
-        <v>569.1846284987755</v>
+        <v>539.9271771165777</v>
       </c>
       <c r="M45" t="n">
-        <v>982.4685439431307</v>
+        <v>953.2110925609329</v>
       </c>
       <c r="N45" t="n">
-        <v>1422.089586868059</v>
+        <v>1392.832135485861</v>
       </c>
       <c r="O45" t="n">
-        <v>1756.628935509046</v>
+        <v>1727.371484126848</v>
       </c>
       <c r="P45" t="n">
-        <v>2008.699715224713</v>
+        <v>1979.442263842515</v>
       </c>
       <c r="Q45" t="n">
         <v>2096.383972186045</v>
@@ -7752,25 +7752,25 @@
         <v>2018.480827591543</v>
       </c>
       <c r="S45" t="n">
-        <v>2018.480827591543</v>
+        <v>1853.122241280265</v>
       </c>
       <c r="T45" t="n">
-        <v>2015.016379485952</v>
+        <v>1653.888058874366</v>
       </c>
       <c r="U45" t="n">
-        <v>1788.108744534851</v>
+        <v>1426.980423923265</v>
       </c>
       <c r="V45" t="n">
-        <v>1553.857501060452</v>
+        <v>1192.729180448865</v>
       </c>
       <c r="W45" t="n">
-        <v>1301.343009393785</v>
+        <v>940.2146887821988</v>
       </c>
       <c r="X45" t="n">
-        <v>1094.816110799362</v>
+        <v>841.8356727410894</v>
       </c>
       <c r="Y45" t="n">
-        <v>889.0876750230128</v>
+        <v>831.8769712650487</v>
       </c>
     </row>
     <row r="46">
@@ -7819,7 +7819,7 @@
         <v>302.7118683644463</v>
       </c>
       <c r="O46" t="n">
-        <v>370.1344173242086</v>
+        <v>370.1344173242085</v>
       </c>
       <c r="P46" t="n">
         <v>404.6035741702452</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>131.627773385681</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>147.3061585068582</v>
+        <v>157.4977212505957</v>
       </c>
       <c r="L11" t="n">
-        <v>262.0056046246924</v>
+        <v>146.4036710752814</v>
       </c>
       <c r="M11" t="n">
-        <v>252.1820789388977</v>
+        <v>252.1820789388978</v>
       </c>
       <c r="N11" t="n">
-        <v>249.7694258630999</v>
+        <v>129.3000424800295</v>
       </c>
       <c r="O11" t="n">
-        <v>255.6969588140377</v>
+        <v>255.6969588140378</v>
       </c>
       <c r="P11" t="n">
-        <v>149.3918654514992</v>
+        <v>269.8612488345696</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,25 +8766,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>96.92932815169495</v>
       </c>
       <c r="K12" t="n">
-        <v>209.1663831566163</v>
+        <v>206.6453789852901</v>
       </c>
       <c r="L12" t="n">
-        <v>157.3864082235903</v>
+        <v>73.64337761417625</v>
       </c>
       <c r="M12" t="n">
         <v>187.3441492342267</v>
       </c>
       <c r="N12" t="n">
-        <v>54.45440979716645</v>
+        <v>54.45440979716646</v>
       </c>
       <c r="O12" t="n">
-        <v>71.69827806700371</v>
+        <v>71.69827806700373</v>
       </c>
       <c r="P12" t="n">
-        <v>76.58433017779021</v>
+        <v>197.0537135608606</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.627773385681</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>267.7755418899286</v>
+        <v>147.3061585068582</v>
       </c>
       <c r="L14" t="n">
-        <v>200.8279402122947</v>
+        <v>266.8730544583518</v>
       </c>
       <c r="M14" t="n">
-        <v>252.1820789388977</v>
+        <v>131.7126955558274</v>
       </c>
       <c r="N14" t="n">
-        <v>129.3000424800295</v>
+        <v>249.7694258630999</v>
       </c>
       <c r="O14" t="n">
-        <v>135.2275754309673</v>
+        <v>206.5968025871026</v>
       </c>
       <c r="P14" t="n">
         <v>269.8612488345696</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>159.6299258739032</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,28 +9003,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>96.92932815169493</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>88.69699977354588</v>
+        <v>88.6969997735459</v>
       </c>
       <c r="L15" t="n">
-        <v>73.64337761417623</v>
+        <v>194.1127609972467</v>
       </c>
       <c r="M15" t="n">
-        <v>184.8231450629005</v>
+        <v>187.3441492342267</v>
       </c>
       <c r="N15" t="n">
-        <v>174.9237931802369</v>
+        <v>135.8509947442472</v>
       </c>
       <c r="O15" t="n">
-        <v>192.1676614500741</v>
+        <v>71.69827806700373</v>
       </c>
       <c r="P15" t="n">
-        <v>76.58433017779021</v>
+        <v>197.0537135608606</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.3574415245459</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9164,22 +9164,22 @@
         <v>131.627773385681</v>
       </c>
       <c r="K17" t="n">
-        <v>147.3061585068582</v>
+        <v>201.7304276438715</v>
       </c>
       <c r="L17" t="n">
-        <v>146.4036710752814</v>
+        <v>266.8730544583518</v>
       </c>
       <c r="M17" t="n">
-        <v>252.1820789388977</v>
+        <v>252.1820789388978</v>
       </c>
       <c r="N17" t="n">
-        <v>183.7243116170427</v>
+        <v>129.3000424800295</v>
       </c>
       <c r="O17" t="n">
-        <v>255.6969588140377</v>
+        <v>255.6969588140378</v>
       </c>
       <c r="P17" t="n">
-        <v>269.8612488345696</v>
+        <v>149.3918654514992</v>
       </c>
       <c r="Q17" t="n">
         <v>220.8075902863009</v>
@@ -9240,28 +9240,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>96.92932815169493</v>
+        <v>96.92932815169495</v>
       </c>
       <c r="K18" t="n">
-        <v>88.69699977354588</v>
+        <v>88.6969997735459</v>
       </c>
       <c r="L18" t="n">
-        <v>73.64337761417623</v>
+        <v>189.2453111635872</v>
       </c>
       <c r="M18" t="n">
-        <v>66.87476585115627</v>
+        <v>187.3441492342267</v>
       </c>
       <c r="N18" t="n">
-        <v>172.4027890089107</v>
+        <v>174.9237931802369</v>
       </c>
       <c r="O18" t="n">
         <v>192.1676614500741</v>
       </c>
       <c r="P18" t="n">
-        <v>197.0537135608606</v>
+        <v>76.58433017779022</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>100.3574415245459</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>131.627773385681</v>
       </c>
       <c r="K20" t="n">
-        <v>267.7755418899286</v>
+        <v>262.9080920562692</v>
       </c>
       <c r="L20" t="n">
-        <v>156.5952338190189</v>
+        <v>266.8730544583518</v>
       </c>
       <c r="M20" t="n">
-        <v>131.7126955558273</v>
+        <v>131.7126955558274</v>
       </c>
       <c r="N20" t="n">
         <v>249.7694258630999</v>
       </c>
       <c r="O20" t="n">
-        <v>255.6969588140377</v>
+        <v>135.2275754309673</v>
       </c>
       <c r="P20" t="n">
-        <v>149.3918654514992</v>
+        <v>269.8612488345696</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>159.6299258739032</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9483,19 +9483,19 @@
         <v>209.1663831566163</v>
       </c>
       <c r="L21" t="n">
-        <v>73.64337761417623</v>
+        <v>194.1127609972467</v>
       </c>
       <c r="M21" t="n">
-        <v>66.87476585115627</v>
+        <v>66.87476585115628</v>
       </c>
       <c r="N21" t="n">
-        <v>54.45440979716645</v>
+        <v>138.1974404065805</v>
       </c>
       <c r="O21" t="n">
-        <v>155.4413086764177</v>
+        <v>71.69827806700373</v>
       </c>
       <c r="P21" t="n">
-        <v>197.0537135608606</v>
+        <v>76.58433017779022</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>131.627773385681</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>267.7755418899286</v>
+        <v>147.3061585068582</v>
       </c>
       <c r="L23" t="n">
-        <v>200.8279402122947</v>
+        <v>217.7728982314167</v>
       </c>
       <c r="M23" t="n">
-        <v>131.7126955558273</v>
+        <v>131.7126955558274</v>
       </c>
       <c r="N23" t="n">
-        <v>129.3000424800295</v>
+        <v>249.7694258630999</v>
       </c>
       <c r="O23" t="n">
-        <v>255.6969588140377</v>
+        <v>255.6969588140378</v>
       </c>
       <c r="P23" t="n">
         <v>269.8612488345696</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.8075902863009</v>
+        <v>159.6299258739032</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,28 +9714,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>96.92932815169495</v>
       </c>
       <c r="K24" t="n">
-        <v>209.1663831566163</v>
+        <v>88.6969997735459</v>
       </c>
       <c r="L24" t="n">
-        <v>157.3864082235903</v>
+        <v>194.1127609972467</v>
       </c>
       <c r="M24" t="n">
-        <v>66.87476585115627</v>
+        <v>187.3441492342267</v>
       </c>
       <c r="N24" t="n">
-        <v>54.45440979716645</v>
+        <v>54.45440979716646</v>
       </c>
       <c r="O24" t="n">
-        <v>192.1676614500741</v>
+        <v>187.3002116164147</v>
       </c>
       <c r="P24" t="n">
-        <v>76.58433017779021</v>
+        <v>197.0537135608606</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.3574415245459</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10668,7 +10668,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>356.1209779214584</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10683,7 +10683,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9273980511437</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>101.581695559886</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9273980511437</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11139,7 +11139,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>245.4908652989427</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>188.9273980511437</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11379,7 +11379,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>356.1209779214584</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>188.9273980511437</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.44259755689977</v>
+        <v>180.9119809399702</v>
       </c>
       <c r="C11" t="n">
         <v>164.1806666275178</v>
@@ -23270,10 +23270,10 @@
         <v>204.489434429116</v>
       </c>
       <c r="G11" t="n">
-        <v>91.0520263750961</v>
+        <v>211.5214097581665</v>
       </c>
       <c r="H11" t="n">
-        <v>72.44419236724491</v>
+        <v>129.9226048534728</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.84531197871192</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>48.63102039758041</v>
       </c>
       <c r="V11" t="n">
-        <v>125.7287924710945</v>
+        <v>5.259409088024071</v>
       </c>
       <c r="W11" t="n">
-        <v>147.7256879491297</v>
+        <v>27.25630456605931</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0571700797445</v>
+        <v>79.7930491746481</v>
       </c>
       <c r="Y11" t="n">
         <v>183.882642699811</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.9119809399702</v>
+        <v>180.9119809399701</v>
       </c>
       <c r="C14" t="n">
-        <v>43.71128324444739</v>
+        <v>164.1806666275177</v>
       </c>
       <c r="D14" t="n">
-        <v>153.8003037031736</v>
+        <v>153.8003037031735</v>
       </c>
       <c r="E14" t="n">
-        <v>180.3136067038626</v>
+        <v>140.6805061963464</v>
       </c>
       <c r="F14" t="n">
-        <v>204.489434429116</v>
+        <v>204.4894344291159</v>
       </c>
       <c r="G14" t="n">
-        <v>123.2572888530702</v>
+        <v>211.5214097581665</v>
       </c>
       <c r="H14" t="n">
-        <v>129.9226048534729</v>
+        <v>9.453221470402369</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>48.63102039758044</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>125.7287924710945</v>
+        <v>5.259409088024015</v>
       </c>
       <c r="W14" t="n">
-        <v>27.25630456605934</v>
+        <v>147.7256879491297</v>
       </c>
       <c r="X14" t="n">
-        <v>168.0571700797446</v>
+        <v>47.58778669667406</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.41325931674056</v>
+        <v>183.8826426998109</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.918465386552271e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-8.538708137538961e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655844.4701912011</v>
+        <v>655844.4701912012</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>791852.4683118471</v>
+      </c>
+      <c r="C2" t="n">
+        <v>791852.4683118471</v>
+      </c>
+      <c r="D2" t="n">
         <v>791852.4683118468</v>
       </c>
-      <c r="C2" t="n">
-        <v>791852.4683118473</v>
-      </c>
-      <c r="D2" t="n">
-        <v>791852.4683118471</v>
-      </c>
       <c r="E2" t="n">
-        <v>681076.2678233405</v>
+        <v>681076.2678233406</v>
       </c>
       <c r="F2" t="n">
-        <v>681076.2678233404</v>
+        <v>681076.2678233406</v>
       </c>
       <c r="G2" t="n">
         <v>793571.4233995629</v>
       </c>
       <c r="H2" t="n">
-        <v>793571.4233995628</v>
+        <v>793571.4233995632</v>
       </c>
       <c r="I2" t="n">
         <v>793571.4233995629</v>
       </c>
       <c r="J2" t="n">
-        <v>793571.4233995635</v>
+        <v>793571.4233995634</v>
       </c>
       <c r="K2" t="n">
-        <v>793571.4233995635</v>
+        <v>793571.4233995636</v>
       </c>
       <c r="L2" t="n">
         <v>793571.4233995635</v>
       </c>
       <c r="M2" t="n">
-        <v>793571.4233995629</v>
+        <v>793571.4233995628</v>
       </c>
       <c r="N2" t="n">
-        <v>793571.4233995625</v>
+        <v>793571.4233995624</v>
       </c>
       <c r="O2" t="n">
-        <v>793571.4233995629</v>
+        <v>793571.4233995628</v>
       </c>
       <c r="P2" t="n">
-        <v>793571.4233995627</v>
+        <v>793571.4233995631</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>303917.1774251077</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>100583.0339768756</v>
@@ -26396,13 +26396,13 @@
         <v>100583.0339768756</v>
       </c>
       <c r="M3" t="n">
-        <v>25413.16024781984</v>
+        <v>25413.16024781986</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29053.43534114911</v>
+        <v>29053.43534114913</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>459145.3766997027</v>
       </c>
       <c r="E4" t="n">
-        <v>349359.7455095866</v>
+        <v>349359.7455095867</v>
       </c>
       <c r="F4" t="n">
         <v>349359.7455095866</v>
@@ -26445,16 +26445,16 @@
         <v>414865.9762198931</v>
       </c>
       <c r="L4" t="n">
-        <v>414865.9762198932</v>
+        <v>414865.9762198931</v>
       </c>
       <c r="M4" t="n">
-        <v>414308.392880118</v>
+        <v>414308.3928801181</v>
       </c>
       <c r="N4" t="n">
-        <v>414308.392880118</v>
+        <v>414308.3928801181</v>
       </c>
       <c r="O4" t="n">
-        <v>414308.392880118</v>
+        <v>414308.3928801181</v>
       </c>
       <c r="P4" t="n">
         <v>414308.3928801181</v>
@@ -26500,16 +26500,16 @@
         <v>55680.8219997023</v>
       </c>
       <c r="M5" t="n">
-        <v>51026.85720110408</v>
+        <v>51026.85720110407</v>
       </c>
       <c r="N5" t="n">
-        <v>51026.85720110408</v>
+        <v>51026.85720110407</v>
       </c>
       <c r="O5" t="n">
-        <v>51026.85720110408</v>
+        <v>51026.85720110407</v>
       </c>
       <c r="P5" t="n">
-        <v>51026.85720110408</v>
+        <v>51026.85720110407</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299079.4916121442</v>
+        <v>299075.0840349964</v>
       </c>
       <c r="C6" t="n">
-        <v>299079.4916121446</v>
+        <v>299075.0840349964</v>
       </c>
       <c r="D6" t="n">
-        <v>299079.4916121444</v>
+        <v>299075.0840349962</v>
       </c>
       <c r="E6" t="n">
-        <v>557.0041441187132</v>
+        <v>268.5550272567215</v>
       </c>
       <c r="F6" t="n">
-        <v>304474.1815692263</v>
+        <v>304185.7324523645</v>
       </c>
       <c r="G6" t="n">
         <v>239961.5057616768</v>
       </c>
       <c r="H6" t="n">
-        <v>340544.5397385523</v>
+        <v>340544.5397385526</v>
       </c>
       <c r="I6" t="n">
-        <v>340544.5397385524</v>
+        <v>340544.5397385525</v>
       </c>
       <c r="J6" t="n">
-        <v>156844.6178341575</v>
+        <v>156844.6178341574</v>
       </c>
       <c r="K6" t="n">
-        <v>323024.6251799681</v>
+        <v>323024.6251799683</v>
       </c>
       <c r="L6" t="n">
-        <v>222441.5912030924</v>
+        <v>222441.5912030925</v>
       </c>
       <c r="M6" t="n">
-        <v>302823.0130705209</v>
+        <v>302823.0130705208</v>
       </c>
       <c r="N6" t="n">
-        <v>328236.1733183403</v>
+        <v>328236.1733183402</v>
       </c>
       <c r="O6" t="n">
-        <v>299182.7379771917</v>
+        <v>299182.7379771916</v>
       </c>
       <c r="P6" t="n">
-        <v>328236.1733183406</v>
+        <v>328236.1733183409</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>202.8044290514248</v>
       </c>
       <c r="F2" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="G2" t="n">
         <v>328.5332215225193</v>
@@ -26917,34 +26917,34 @@
         <v>202.8044290514248</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>125.7287924710944</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>36.31679417643642</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>125.7287924710945</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>36.31679417643639</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>125.7287924710946</v>
-      </c>
       <c r="M2" t="n">
-        <v>31.7664503097748</v>
+        <v>31.76645030977483</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643639</v>
+        <v>36.31679417643642</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>202.8044290514248</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>125.7287924710945</v>
+        <v>125.7287924710944</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643639</v>
+        <v>36.31679417643642</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28169,13 +28169,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>115.8545825819884</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>35.56405032410341</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -28217,7 +28217,7 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S12" t="n">
-        <v>110.1911996598054</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T12" t="n">
         <v>197.2418405818404</v>
@@ -28232,7 +28232,7 @@
         <v>129.5199633669296</v>
       </c>
       <c r="X12" t="n">
-        <v>202.8044290514248</v>
+        <v>83.99224622540784</v>
       </c>
       <c r="Y12" t="n">
         <v>83.2017680355156</v>
@@ -28290,13 +28290,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.89355583796826</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>162.723153487679</v>
       </c>
       <c r="S13" t="n">
-        <v>139.6229493822777</v>
+        <v>202.8044290514248</v>
       </c>
       <c r="T13" t="n">
         <v>202.8044290514248</v>
@@ -28308,7 +28308,7 @@
         <v>202.8044290514248</v>
       </c>
       <c r="W13" t="n">
-        <v>202.8044290514248</v>
+        <v>199.5165052202461</v>
       </c>
       <c r="X13" t="n">
         <v>202.8044290514248</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="C14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="D14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="E14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="G14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="H14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="I14" t="n">
         <v>184.8328653437042</v>
@@ -28378,22 +28378,22 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="U14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="V14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="W14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="X14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="Y14" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
     </row>
     <row r="15">
@@ -28409,10 +28409,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>25.64304019157514</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>35.56405032410341</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>163.7050004481646</v>
@@ -28463,16 +28463,16 @@
         <v>104.1691752185199</v>
       </c>
       <c r="V15" t="n">
-        <v>202.8044290514248</v>
+        <v>111.4393476565847</v>
       </c>
       <c r="W15" t="n">
-        <v>175.5081387786366</v>
+        <v>129.5199633669296</v>
       </c>
       <c r="X15" t="n">
-        <v>202.8044290514248</v>
+        <v>176.3430322403876</v>
       </c>
       <c r="Y15" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
     </row>
     <row r="16">
@@ -28533,25 +28533,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S16" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="T16" t="n">
-        <v>139.6229493822778</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="U16" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="V16" t="n">
-        <v>202.8044290514248</v>
+        <v>139.6229493822775</v>
       </c>
       <c r="W16" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="X16" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.8044290514248</v>
+        <v>202.8044290514249</v>
       </c>
     </row>
     <row r="17">
@@ -28643,16 +28643,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>64.91615104359259</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>25.64304019157514</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>35.56405032410341</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>23.03684870047887</v>
+        <v>37.39679919974091</v>
       </c>
       <c r="G18" t="n">
         <v>135.7402095277565</v>
@@ -28691,13 +28691,13 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7050004481646</v>
+        <v>43.23561706509418</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2418405818404</v>
+        <v>76.77245719876994</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6385586015903</v>
+        <v>104.1691752185199</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.97332247756557</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -28734,10 +28734,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>47.18294728581011</v>
+        <v>167.6523306688805</v>
       </c>
       <c r="H19" t="n">
-        <v>39.05524699420527</v>
+        <v>159.5246303772757</v>
       </c>
       <c r="I19" t="n">
         <v>146.6235438143066</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.89355583796826</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>162.723153487679</v>
+        <v>42.25377010460853</v>
       </c>
       <c r="S19" t="n">
         <v>218.2226425362118</v>
@@ -28779,10 +28779,10 @@
         <v>286.0393290313609</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>194.7195378917893</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>165.6231935043451</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>44.9027422272744</v>
       </c>
       <c r="C21" t="n">
-        <v>64.91615104359259</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>25.64304019157514</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>35.56405032410341</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>23.03684870047887</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.7402095277565</v>
@@ -28934,7 +28934,7 @@
         <v>197.2418405818404</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6385586015903</v>
+        <v>104.1691752185199</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -28943,10 +28943,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>98.35219672466987</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>83.2017680355156</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>59.61430810761338</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -28965,10 +28965,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>26.50524079012875</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>25.68963802673407</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>167.6523306688805</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.89355583796826</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>162.723153487679</v>
+        <v>104.5063403125291</v>
       </c>
       <c r="S22" t="n">
         <v>218.2226425362118</v>
@@ -29016,10 +29016,10 @@
         <v>286.0393290313609</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>132.4669676838687</v>
       </c>
       <c r="W22" t="n">
-        <v>167.9822078742973</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -29120,19 +29120,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>25.64304019157514</v>
       </c>
       <c r="E24" t="n">
-        <v>35.56405032410341</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>23.03684870047887</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7402095277565</v>
       </c>
       <c r="H24" t="n">
-        <v>78.74400503519969</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I24" t="n">
         <v>76.75987979576297</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7050004481646</v>
+        <v>43.23561706509419</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2418405818404</v>
+        <v>76.77245719876994</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6385586015903</v>
+        <v>195.6532388663386</v>
       </c>
       <c r="V24" t="n">
-        <v>111.4393476565847</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.97332247756557</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>46.86716954813191</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -29247,13 +29247,13 @@
         <v>218.2226425362118</v>
       </c>
       <c r="T25" t="n">
-        <v>227.3187261480809</v>
+        <v>106.8493427650105</v>
       </c>
       <c r="U25" t="n">
         <v>286.0393290313609</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>132.4669676838687</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
@@ -29262,7 +29262,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.2792904846978</v>
+        <v>100.6383048546501</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>162.0455866475309</v>
       </c>
       <c r="J26" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>162.0455866475309</v>
@@ -29305,19 +29305,19 @@
         <v>162.0455866475309</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>160.0311887495463</v>
+      </c>
+      <c r="O26" t="n">
         <v>162.0455866475309</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>160.0311887495471</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>162.0455866475309</v>
       </c>
       <c r="R26" t="n">
         <v>162.0455866475309</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>109.8679771691791</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29369,10 +29369,10 @@
         <v>135.7402095277565</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>162.0455866475309</v>
-      </c>
-      <c r="T27" t="n">
-        <v>162.0455866475309</v>
-      </c>
-      <c r="U27" t="n">
-        <v>55.18748193930563</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29439,7 +29439,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>152.6952078088992</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -29466,13 +29466,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>94.80963133678981</v>
+        <v>89.08904770108956</v>
       </c>
       <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>162.0455866475309</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>59.89355583796826</v>
@@ -29536,25 +29536,25 @@
         <v>162.0455866475309</v>
       </c>
       <c r="K29" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>162.0455866475309</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>162.0455866475309</v>
       </c>
       <c r="N29" t="n">
-        <v>160.0311887495466</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
+        <v>160.0311887495469</v>
+      </c>
+      <c r="Q29" t="n">
         <v>162.0455866475309</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>162.0455866475309</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29600,16 +29600,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>115.8801301095361</v>
       </c>
       <c r="G30" t="n">
         <v>135.7402095277565</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>138.3237480282197</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>162.0455866475309</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>154.7261501502194</v>
       </c>
       <c r="E31" t="n">
         <v>146.9746241731992</v>
@@ -29697,13 +29697,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>89.08904770108964</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>94.80963133678958</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>162.0455866475309</v>
       </c>
       <c r="J32" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,19 +29779,19 @@
         <v>162.0455866475309</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>160.0311887495466</v>
+      </c>
+      <c r="O32" t="n">
         <v>162.0455866475309</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>162.0455866475309</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>160.0311887495466</v>
+        <v>162.0455866475309</v>
       </c>
       <c r="R32" t="n">
         <v>162.0455866475309</v>
@@ -29834,13 +29834,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>12.45063984120532</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.7293247704514</v>
@@ -29876,13 +29876,13 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>162.0455866475309</v>
       </c>
       <c r="T33" t="n">
-        <v>32.74386402062254</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29910,7 +29910,7 @@
         <v>162.0455866475309</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>154.7261501502194</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -29931,14 +29931,14 @@
         <v>72.06468585899248</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>162.0455866475309</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>154.7031871747574</v>
+        <v>148.9826035390578</v>
       </c>
       <c r="R34" t="n">
         <v>162.0455866475309</v>
@@ -30004,25 +30004,25 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I35" t="n">
+        <v>184.8328653437042</v>
+      </c>
+      <c r="J35" t="n">
+        <v>105.6249643739672</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>193.8120369573057</v>
-      </c>
-      <c r="J35" t="n">
-        <v>96.64579276036545</v>
-      </c>
-      <c r="K35" t="n">
-        <v>193.8120369573057</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,19 +30071,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7402095277565</v>
+        <v>39.75610290894724</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T36" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>126.1834826836495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30192,7 +30192,7 @@
         <v>162.723153487679</v>
       </c>
       <c r="S37" t="n">
-        <v>193.5773019469923</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="T37" t="n">
         <v>193.8120369573057</v>
@@ -30207,7 +30207,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="X37" t="n">
-        <v>193.8120369573057</v>
+        <v>193.5773019469924</v>
       </c>
       <c r="Y37" t="n">
         <v>193.8120369573057</v>
@@ -30241,19 +30241,19 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I38" t="n">
+        <v>184.8328653437042</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>193.8120369573057</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>188.3146137697927</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,13 +30262,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>96.64579276036551</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>193.8120369573057</v>
+        <v>111.1223875614801</v>
       </c>
       <c r="S38" t="n">
         <v>193.8120369573057</v>
@@ -30311,10 +30311,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H39" t="n">
         <v>107.7293247704514</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7050004481646</v>
+        <v>157.3722086015365</v>
       </c>
       <c r="T39" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.977499658815731</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.5773019469923</v>
       </c>
       <c r="U40" t="n">
         <v>193.8120369573057</v>
@@ -30447,7 +30447,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.5773019469923</v>
+        <v>193.8120369573057</v>
       </c>
     </row>
     <row r="41">
@@ -30478,19 +30478,19 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I41" t="n">
+        <v>184.8328653437042</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>193.8120369573057</v>
       </c>
-      <c r="J41" t="n">
-        <v>96.64579276036531</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>188.3146137697927</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,13 +30499,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2.496750036002545</v>
       </c>
       <c r="R41" t="n">
-        <v>193.8120369573057</v>
+        <v>108.6256375254776</v>
       </c>
       <c r="S41" t="n">
         <v>193.8120369573057</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>4.430181486286926</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>125.1341010278518</v>
       </c>
     </row>
     <row r="43">
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.89355583796826</v>
+        <v>59.65882082765489</v>
       </c>
       <c r="R43" t="n">
         <v>162.723153487679</v>
@@ -30669,7 +30669,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T43" t="n">
-        <v>193.5773019469923</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="U43" t="n">
         <v>193.8120369573057</v>
@@ -30715,11 +30715,11 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I44" t="n">
+        <v>184.8328653437042</v>
+      </c>
+      <c r="J44" t="n">
         <v>193.8120369573057</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -30727,13 +30727,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>96.64579276036557</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>105.6249643739674</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H45" t="n">
-        <v>40.71851400317797</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I45" t="n">
         <v>76.75987979576297</v>
@@ -30824,25 +30824,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7050004481646</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>107.06640372778</v>
+      </c>
+      <c r="Y45" t="n">
         <v>193.8120369573057</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H11" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I11" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J11" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K11" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L11" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M11" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N11" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O11" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P11" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R11" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S11" t="n">
         <v>12.05291476623351</v>
@@ -31792,7 +31792,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H12" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I12" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J12" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K12" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L12" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M12" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N12" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O12" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P12" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R12" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S12" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T12" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,28 +31914,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I13" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J13" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K13" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L13" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M13" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N13" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O13" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P13" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q13" t="n">
         <v>19.86714403787991</v>
@@ -31944,7 +31944,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S13" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T13" t="n">
         <v>1.013739843426724</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H14" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I14" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J14" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K14" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L14" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M14" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N14" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O14" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P14" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R14" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S14" t="n">
         <v>12.05291476623351</v>
@@ -32029,7 +32029,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H15" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I15" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J15" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K15" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L15" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M15" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N15" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O15" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P15" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R15" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S15" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T15" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,28 +32151,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I16" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J16" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K16" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L16" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M16" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N16" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O16" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P16" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q16" t="n">
         <v>19.86714403787991</v>
@@ -32181,7 +32181,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S16" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T16" t="n">
         <v>1.013739843426724</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H17" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I17" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J17" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K17" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L17" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M17" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N17" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O17" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P17" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R17" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S17" t="n">
         <v>12.05291476623351</v>
@@ -32266,7 +32266,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H18" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I18" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J18" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K18" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L18" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M18" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N18" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O18" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P18" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R18" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S18" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T18" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,28 +32388,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I19" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J19" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K19" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L19" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M19" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N19" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O19" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P19" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q19" t="n">
         <v>19.86714403787991</v>
@@ -32418,7 +32418,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S19" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T19" t="n">
         <v>1.013739843426724</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H20" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I20" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J20" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K20" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L20" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M20" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N20" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O20" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P20" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R20" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S20" t="n">
         <v>12.05291476623351</v>
@@ -32503,7 +32503,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H21" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I21" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J21" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K21" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L21" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M21" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N21" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O21" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P21" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R21" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S21" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T21" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,28 +32625,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I22" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J22" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K22" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L22" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M22" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N22" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O22" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P22" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q22" t="n">
         <v>19.86714403787991</v>
@@ -32655,7 +32655,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S22" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T22" t="n">
         <v>1.013739843426724</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H23" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I23" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J23" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K23" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L23" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M23" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N23" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O23" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P23" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R23" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S23" t="n">
         <v>12.05291476623351</v>
@@ -32740,7 +32740,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H24" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I24" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J24" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K24" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L24" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M24" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N24" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O24" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P24" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R24" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S24" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T24" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,28 +32862,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I25" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J25" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K25" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L25" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M25" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N25" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O25" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P25" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q25" t="n">
         <v>19.86714403787991</v>
@@ -32892,7 +32892,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S25" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T25" t="n">
         <v>1.013739843426724</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H26" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I26" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J26" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K26" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L26" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M26" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N26" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O26" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P26" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R26" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S26" t="n">
         <v>12.05291476623351</v>
@@ -32977,7 +32977,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H27" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I27" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J27" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K27" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L27" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M27" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N27" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O27" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P27" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R27" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S27" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T27" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,28 +33099,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I28" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J28" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K28" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L28" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M28" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N28" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O28" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P28" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q28" t="n">
         <v>19.86714403787991</v>
@@ -33129,7 +33129,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S28" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T28" t="n">
         <v>1.013739843426724</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H29" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I29" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J29" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K29" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L29" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M29" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N29" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O29" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P29" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R29" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S29" t="n">
         <v>12.05291476623351</v>
@@ -33214,7 +33214,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H30" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I30" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J30" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K30" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L30" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M30" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N30" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O30" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P30" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R30" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S30" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T30" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,28 +33336,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I31" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J31" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K31" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L31" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M31" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N31" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O31" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P31" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q31" t="n">
         <v>19.86714403787991</v>
@@ -33366,7 +33366,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S31" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T31" t="n">
         <v>1.013739843426724</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H32" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I32" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J32" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K32" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L32" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M32" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N32" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O32" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P32" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q32" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R32" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S32" t="n">
         <v>12.05291476623351</v>
@@ -33451,7 +33451,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H33" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I33" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J33" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K33" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L33" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M33" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N33" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O33" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P33" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R33" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S33" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T33" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,28 +33573,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I34" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J34" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K34" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L34" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M34" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N34" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O34" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P34" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q34" t="n">
         <v>19.86714403787991</v>
@@ -33603,7 +33603,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S34" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T34" t="n">
         <v>1.013739843426724</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H35" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I35" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J35" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K35" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L35" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M35" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N35" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O35" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P35" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R35" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S35" t="n">
         <v>12.05291476623351</v>
@@ -33688,7 +33688,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H36" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I36" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J36" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K36" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L36" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M36" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N36" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O36" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P36" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R36" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S36" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T36" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,28 +33810,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I37" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J37" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K37" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L37" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M37" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N37" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O37" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P37" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q37" t="n">
         <v>19.86714403787991</v>
@@ -33840,7 +33840,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S37" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T37" t="n">
         <v>1.013739843426724</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H38" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I38" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J38" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K38" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L38" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M38" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N38" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O38" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P38" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R38" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S38" t="n">
         <v>12.05291476623351</v>
@@ -33925,7 +33925,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H39" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I39" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J39" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K39" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L39" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M39" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N39" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O39" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P39" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R39" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S39" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T39" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,28 +34047,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I40" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J40" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K40" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L40" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M40" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N40" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O40" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P40" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q40" t="n">
         <v>19.86714403787991</v>
@@ -34077,7 +34077,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S40" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T40" t="n">
         <v>1.013739843426724</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H41" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I41" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J41" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K41" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L41" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M41" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N41" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O41" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P41" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R41" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S41" t="n">
         <v>12.05291476623351</v>
@@ -34162,7 +34162,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H42" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I42" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J42" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K42" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L42" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M42" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N42" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O42" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P42" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R42" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S42" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T42" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,28 +34284,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I43" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J43" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K43" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L43" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M43" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N43" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O43" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P43" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q43" t="n">
         <v>19.86714403787991</v>
@@ -34314,7 +34314,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S43" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T43" t="n">
         <v>1.013739843426724</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5289265942395392</v>
+        <v>0.5289265942395391</v>
       </c>
       <c r="H44" t="n">
-        <v>5.416869483255684</v>
+        <v>5.416869483255682</v>
       </c>
       <c r="I44" t="n">
-        <v>20.39144252441986</v>
+        <v>20.39144252441985</v>
       </c>
       <c r="J44" t="n">
-        <v>44.89198352783814</v>
+        <v>44.89198352783813</v>
       </c>
       <c r="K44" t="n">
-        <v>67.28144626199786</v>
+        <v>67.28144626199784</v>
       </c>
       <c r="L44" t="n">
-        <v>83.46858352045616</v>
+        <v>83.46858352045615</v>
       </c>
       <c r="M44" t="n">
-        <v>92.87488184076358</v>
+        <v>92.87488184076355</v>
       </c>
       <c r="N44" t="n">
-        <v>94.37769452664668</v>
+        <v>94.37769452664665</v>
       </c>
       <c r="O44" t="n">
-        <v>89.11818070517725</v>
+        <v>89.11818070517722</v>
       </c>
       <c r="P44" t="n">
-        <v>76.06030540988861</v>
+        <v>76.0603054098886</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.11812175368509</v>
+        <v>57.11812175368507</v>
       </c>
       <c r="R44" t="n">
-        <v>33.22518517539949</v>
+        <v>33.22518517539948</v>
       </c>
       <c r="S44" t="n">
         <v>12.05291476623351</v>
@@ -34399,7 +34399,7 @@
         <v>2.315376166283584</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04231412753916314</v>
+        <v>0.04231412753916312</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2830006772858066</v>
+        <v>0.2830006772858065</v>
       </c>
       <c r="H45" t="n">
-        <v>2.733190751681343</v>
+        <v>2.733190751681342</v>
       </c>
       <c r="I45" t="n">
-        <v>9.743663669708692</v>
+        <v>9.74366366970869</v>
       </c>
       <c r="J45" t="n">
-        <v>26.73735784830509</v>
+        <v>26.73735784830508</v>
       </c>
       <c r="K45" t="n">
-        <v>45.69840322645413</v>
+        <v>45.69840322645412</v>
       </c>
       <c r="L45" t="n">
-        <v>61.44714267120112</v>
+        <v>61.44714267120111</v>
       </c>
       <c r="M45" t="n">
-        <v>71.70591722281159</v>
+        <v>71.70591722281158</v>
       </c>
       <c r="N45" t="n">
-        <v>73.60375948408353</v>
+        <v>73.60375948408351</v>
       </c>
       <c r="O45" t="n">
-        <v>67.3330602663296</v>
+        <v>67.33306026632958</v>
       </c>
       <c r="P45" t="n">
-        <v>54.04071705118179</v>
+        <v>54.04071705118177</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.12478820932507</v>
+        <v>36.12478820932505</v>
       </c>
       <c r="R45" t="n">
         <v>17.57086661253456</v>
       </c>
       <c r="S45" t="n">
-        <v>5.256613457479781</v>
+        <v>5.256613457479779</v>
       </c>
       <c r="T45" t="n">
         <v>1.140691326428316</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01861846561090834</v>
+        <v>0.01861846561090833</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,28 +34521,28 @@
         <v>2.109441631641142</v>
       </c>
       <c r="I46" t="n">
-        <v>7.135002983097031</v>
+        <v>7.13500298309703</v>
       </c>
       <c r="J46" t="n">
-        <v>16.77415906878646</v>
+        <v>16.77415906878645</v>
       </c>
       <c r="K46" t="n">
-        <v>27.56509616807135</v>
+        <v>27.56509616807134</v>
       </c>
       <c r="L46" t="n">
         <v>35.27383276468223</v>
       </c>
       <c r="M46" t="n">
-        <v>37.19131089405745</v>
+        <v>37.19131089405744</v>
       </c>
       <c r="N46" t="n">
-        <v>36.30698464766396</v>
+        <v>36.30698464766395</v>
       </c>
       <c r="O46" t="n">
-        <v>33.53537677786961</v>
+        <v>33.5353767778696</v>
       </c>
       <c r="P46" t="n">
-        <v>28.69530824882795</v>
+        <v>28.69530824882794</v>
       </c>
       <c r="Q46" t="n">
         <v>19.86714403787991</v>
@@ -34551,7 +34551,7 @@
         <v>10.66799418210335</v>
       </c>
       <c r="S46" t="n">
-        <v>4.134764425210702</v>
+        <v>4.134764425210701</v>
       </c>
       <c r="T46" t="n">
         <v>1.013739843426724</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>10.19156274373755</v>
       </c>
       <c r="L11" t="n">
-        <v>115.601933549411</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="N11" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.20534860233024</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>120.4693833830704</v>
+        <v>117.9483792117442</v>
       </c>
       <c r="L12" t="n">
-        <v>83.74303060941402</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>120.4693833830704</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Q12" t="n">
         <v>118.1229377207372</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L13" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M13" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N13" t="n">
         <v>90.50400431230184</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="L14" t="n">
-        <v>54.42426913701325</v>
-      </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>71.36922715613527</v>
       </c>
       <c r="P14" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="Q14" t="n">
-        <v>61.1776644123977</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="M15" t="n">
-        <v>117.9483792117442</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="N15" t="n">
+        <v>81.39658494708075</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="O15" t="n">
-        <v>120.4693833830704</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>118.1229377207372</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L16" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M16" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N16" t="n">
         <v>90.50400431230184</v>
@@ -35884,25 +35884,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>54.42426913701325</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="M17" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="N17" t="n">
-        <v>54.42426913701325</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="P17" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.1776644123977</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>115.601933549411</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="N18" t="n">
-        <v>117.9483792117442</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="O18" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="P18" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.1229377207372</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L19" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M19" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N19" t="n">
         <v>90.50400431230184</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.23270639327573</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>115.601933549411</v>
+      </c>
+      <c r="L20" t="n">
         <v>120.4693833830704</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10.19156274373755</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,13 +36133,13 @@
         <v>120.4693833830704</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>61.1776644123977</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.20534860233024</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K21" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>83.74303060941402</v>
       </c>
       <c r="O21" t="n">
-        <v>83.74303060941402</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>118.1229377207372</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L22" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M22" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N22" t="n">
         <v>90.50400431230184</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>71.36922715613527</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>120.4693833830704</v>
-      </c>
-      <c r="L23" t="n">
-        <v>54.42426913701325</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>120.4693833830704</v>
@@ -36376,7 +36376,7 @@
         <v>120.4693833830704</v>
       </c>
       <c r="Q23" t="n">
-        <v>61.1776644123977</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.20534860233024</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="L24" t="n">
-        <v>83.74303060941402</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>115.601933549411</v>
+      </c>
+      <c r="P24" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>118.1229377207372</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L25" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M25" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N25" t="n">
         <v>90.50400431230184</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>206.2782930408066</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K26" t="n">
         <v>351.8506572146841</v>
@@ -36601,22 +36601,22 @@
         <v>450.0095787047179</v>
       </c>
       <c r="M26" t="n">
-        <v>497.8269659242494</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N26" t="n">
-        <v>325.540758908434</v>
+        <v>485.5719476579803</v>
       </c>
       <c r="O26" t="n">
-        <v>260.8046130822879</v>
+        <v>422.8501997298188</v>
       </c>
       <c r="P26" t="n">
-        <v>345.3099797963898</v>
+        <v>185.2787910468427</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.1776644123977</v>
+        <v>223.2232510599286</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4199491220533</v>
+        <v>53.41994912205332</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.20534860233024</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K27" t="n">
         <v>186.3468467195359</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5.720583635700053</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L28" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M28" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N28" t="n">
-        <v>185.3136356490917</v>
+        <v>179.5930520133914</v>
       </c>
       <c r="O28" t="n">
-        <v>230.1491714553715</v>
+        <v>68.10358480784066</v>
       </c>
       <c r="P28" t="n">
-        <v>34.81733014751178</v>
+        <v>196.8629167950427</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>206.2782930408066</v>
       </c>
       <c r="K29" t="n">
-        <v>351.8506572146841</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L29" t="n">
         <v>450.0095787047179</v>
       </c>
       <c r="M29" t="n">
-        <v>335.7813792767185</v>
+        <v>497.8269659242494</v>
       </c>
       <c r="N29" t="n">
-        <v>485.5719476579806</v>
+        <v>325.540758908434</v>
       </c>
       <c r="O29" t="n">
-        <v>260.8046130822879</v>
+        <v>260.8046130822878</v>
       </c>
       <c r="P29" t="n">
-        <v>347.3243776943737</v>
+        <v>345.3099797963896</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.1776644123977</v>
+        <v>223.2232510599286</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41994912205332</v>
+        <v>53.41994912205329</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.20534860233024</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K30" t="n">
         <v>186.3468467195359</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>5.720583635700082</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36990,16 +36990,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L31" t="n">
-        <v>72.73496299369151</v>
+        <v>161.8240106947812</v>
       </c>
       <c r="M31" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N31" t="n">
-        <v>185.3136356490914</v>
+        <v>90.50400431230184</v>
       </c>
       <c r="O31" t="n">
         <v>68.10358480784066</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>206.2782930408067</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K32" t="n">
         <v>189.8050705671532</v>
@@ -37075,22 +37075,22 @@
         <v>450.0095787047179</v>
       </c>
       <c r="M32" t="n">
-        <v>497.8269659242494</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N32" t="n">
-        <v>487.586345555965</v>
+        <v>485.5719476579806</v>
       </c>
       <c r="O32" t="n">
-        <v>260.8046130822879</v>
+        <v>422.8501997298188</v>
       </c>
       <c r="P32" t="n">
-        <v>185.2787910468427</v>
+        <v>347.3243776943737</v>
       </c>
       <c r="Q32" t="n">
-        <v>221.2088531619443</v>
+        <v>223.2232510599286</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41994912205335</v>
+        <v>53.41994912205332</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.20534860233024</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K33" t="n">
         <v>186.3468467195359</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5.720583635700053</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>174.8362730977689</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L34" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M34" t="n">
-        <v>87.38871889096602</v>
+        <v>249.4343055384969</v>
       </c>
       <c r="N34" t="n">
         <v>90.50400431230184</v>
@@ -37245,7 +37245,7 @@
         <v>34.81733014751178</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.8096313367891</v>
+        <v>89.08904770108951</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.979171613601579</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>140.8784991536412</v>
+        <v>149.857670767243</v>
       </c>
       <c r="K35" t="n">
-        <v>383.6171075244589</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L35" t="n">
         <v>287.963992057187</v>
       </c>
       <c r="M35" t="n">
-        <v>335.7813792767185</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N35" t="n">
         <v>325.540758908434</v>
       </c>
       <c r="O35" t="n">
-        <v>260.8046130822879</v>
+        <v>454.6166500395935</v>
       </c>
       <c r="P35" t="n">
         <v>185.2787910468427</v>
       </c>
       <c r="Q35" t="n">
-        <v>61.1776644123977</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R35" t="n">
-        <v>85.18639943182815</v>
+        <v>85.18639943182814</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>34.20534860233024</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K36" t="n">
         <v>186.3468467195359</v>
       </c>
       <c r="L36" t="n">
-        <v>312.0305815014213</v>
+        <v>282.4776003072822</v>
       </c>
       <c r="M36" t="n">
         <v>417.4585004488437</v>
@@ -37403,7 +37403,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.56995652659779</v>
+        <v>118.1229377207372</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L37" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M37" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N37" t="n">
         <v>90.50400431230184</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.979171613601579</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.23270639327573</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K38" t="n">
         <v>189.8050705671532</v>
       </c>
       <c r="L38" t="n">
-        <v>287.963992057187</v>
+        <v>481.7760290144927</v>
       </c>
       <c r="M38" t="n">
-        <v>335.7813792767185</v>
+        <v>524.0959930465111</v>
       </c>
       <c r="N38" t="n">
         <v>325.540758908434</v>
       </c>
       <c r="O38" t="n">
-        <v>260.8046130822879</v>
+        <v>260.8046130822878</v>
       </c>
       <c r="P38" t="n">
-        <v>281.9245838072083</v>
+        <v>185.2787910468427</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.9897013697034</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R38" t="n">
-        <v>85.18639943182815</v>
+        <v>2.496750036002457</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.20534860233024</v>
+        <v>4.652367408191083</v>
       </c>
       <c r="K39" t="n">
         <v>186.3468467195359</v>
@@ -37640,7 +37640,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.56995652659779</v>
+        <v>118.1229377207372</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L40" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M40" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N40" t="n">
         <v>90.50400431230184</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.979171613601579</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>140.878499153641</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K41" t="n">
         <v>189.8050705671532</v>
       </c>
       <c r="L41" t="n">
-        <v>287.963992057187</v>
+        <v>481.7760290144927</v>
       </c>
       <c r="M41" t="n">
-        <v>335.7813792767185</v>
+        <v>524.0959930465111</v>
       </c>
       <c r="N41" t="n">
         <v>325.540758908434</v>
       </c>
       <c r="O41" t="n">
-        <v>260.8046130822879</v>
+        <v>260.8046130822878</v>
       </c>
       <c r="P41" t="n">
-        <v>379.0908280041485</v>
+        <v>185.2787910468427</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.1776644123977</v>
+        <v>63.67441444840023</v>
       </c>
       <c r="R41" t="n">
-        <v>85.18639943182815</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.20534860233024</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K42" t="n">
-        <v>186.3468467195359</v>
+        <v>156.7938655253968</v>
       </c>
       <c r="L42" t="n">
         <v>312.0305815014213</v>
@@ -37877,7 +37877,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.56995652659779</v>
+        <v>118.1229377207372</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L43" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M43" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N43" t="n">
         <v>90.50400431230184</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.979171613601579</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.23270639327573</v>
+        <v>238.0447433505815</v>
       </c>
       <c r="K44" t="n">
         <v>189.8050705671532</v>
@@ -38023,22 +38023,22 @@
         <v>287.963992057187</v>
       </c>
       <c r="M44" t="n">
-        <v>432.4271720370841</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N44" t="n">
-        <v>519.3527958657397</v>
+        <v>325.540758908434</v>
       </c>
       <c r="O44" t="n">
-        <v>260.8046130822879</v>
+        <v>366.4295774562552</v>
       </c>
       <c r="P44" t="n">
         <v>185.2787910468427</v>
       </c>
       <c r="Q44" t="n">
-        <v>61.1776644123977</v>
+        <v>61.17766441239769</v>
       </c>
       <c r="R44" t="n">
-        <v>85.18639943182815</v>
+        <v>85.18639943182814</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.20534860233024</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K45" t="n">
         <v>186.3468467195359</v>
       </c>
       <c r="L45" t="n">
-        <v>312.0305815014213</v>
+        <v>282.4776003072822</v>
       </c>
       <c r="M45" t="n">
         <v>417.4585004488437</v>
@@ -38114,7 +38114,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.56995652659779</v>
+        <v>118.1229377207372</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.790686450238</v>
+        <v>12.79068645023799</v>
       </c>
       <c r="L46" t="n">
         <v>72.73496299369151</v>
       </c>
       <c r="M46" t="n">
-        <v>87.38871889096602</v>
+        <v>87.388718890966</v>
       </c>
       <c r="N46" t="n">
         <v>90.50400431230184</v>
